--- a/backend/fms_core/static/submission_templates/Sample_identity_QC_v5_1_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Sample_identity_QC_v5_1_0.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SampleIdentityQC" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Info" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Index" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="QcContainer" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Info" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Index" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="451">
   <si>
     <t xml:space="preserve">Sample Identity QC Template</t>
   </si>
@@ -77,58 +78,133 @@
     <t xml:space="preserve">Source Container Coord</t>
   </si>
   <si>
+    <t xml:space="preserve">Destination Container Barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destination Container Coord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destination Container Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destination Container Kind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume Used (uL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QC Date (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workflow Action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Identity QC template instructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Identity QC template adjust the volume of the sample and provide the QC container for the QC values to be store in Freezeman once the processing is done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the "Keep Source Coord for Destination" is set to "Yes" the QC container coordinates will be set to the source coordinates.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details on fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample name of the source of the QC. This is used for validation purpose to confirm the expected sample matches the container location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique barcode of the container holding the source sample.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinate of the source sample within the container. Using the alphanumerical coordinates names (e.g. A01).</t>
+  </si>
+  <si>
     <t xml:space="preserve">QC Container Barcode</t>
   </si>
   <si>
+    <t xml:space="preserve">Unique barcode of the container holding the QCed sample.</t>
+  </si>
+  <si>
     <t xml:space="preserve">QC Container Coord</t>
   </si>
   <si>
+    <t xml:space="preserve">Coordinate of the QCed sample within the container. Using the alphanumerical coordinates names (e.g. A01).</t>
+  </si>
+  <si>
     <t xml:space="preserve">QC Container Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Name of the destination container. The container barcode will be used as name if none is provided.</t>
+  </si>
+  <si>
     <t xml:space="preserve">QC Container Kind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume Used (uL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QC Date (YYYY-MM-DD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Workflow Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Identity QC template instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Identity QC template adjust the volume of the sample and provide the QC container for the QC values to be store in Freezeman once the processing is done.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the "Keep Source Coord for Destination" is set to "Yes" the QC container coordinates will be set to the source coordinates.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Details on fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample name of the source of the QC. This is used for validation purpose to confirm the expected sample matches the container location.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique barcode of the container holding the source sample.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coordinate of the source sample within the container. Using the alphanumerical coordinates names (e.g. A01).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique barcode of the container holding the QCed sample.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coordinate of the QCed sample within the container. Using the alphanumerical coordinates names (e.g. A01).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of the destination container. The container barcode will be used as name if none is provided.</t>
   </si>
   <si>
     <t xml:space="preserve">Kind of the destination container.</t>
@@ -1445,7 +1521,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1460,8 +1536,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9D4"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFAFD095"/>
-        <bgColor rgb="FF92D050"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1632,7 +1720,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1761,6 +1849,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1785,7 +1889,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1818,11 +1922,11 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFF6F9D4"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -1840,7 +1944,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -1872,13 +1976,13 @@
   </sheetPr>
   <dimension ref="A1:Z892"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.21"/>
@@ -8667,20 +8771,222 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:M1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:V1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8730,7 +9036,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -8756,7 +9062,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -8804,8 +9110,8 @@
       <c r="V5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>19</v>
+      <c r="A6" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -8828,8 +9134,8 @@
       <c r="V6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -8851,13 +9157,13 @@
       <c r="V7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="34"/>
+      <c r="B8" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="38"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -8879,13 +9185,13 @@
       <c r="V8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="37"/>
+      <c r="B9" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="41"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -8907,13 +9213,13 @@
       <c r="V9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="37"/>
+      <c r="B10" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="41"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -8935,13 +9241,13 @@
       <c r="V10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="37"/>
+      <c r="A11" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="41"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -8963,13 +9269,13 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="37"/>
+      <c r="A12" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="41"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -8991,13 +9297,13 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="37"/>
+      <c r="A13" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="41"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -9019,13 +9325,13 @@
       <c r="V13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="37"/>
+      <c r="A14" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="41"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -9047,13 +9353,13 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="37"/>
+      <c r="B15" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="41"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -9075,13 +9381,13 @@
       <c r="V15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="37"/>
+      <c r="B16" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="41"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -9103,13 +9409,13 @@
       <c r="V16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="37"/>
+      <c r="B17" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="41"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -9131,11 +9437,11 @@
       <c r="V17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>30</v>
+      <c r="B18" s="40" t="s">
+        <v>55</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -9765,7 +10071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -9776,7 +10082,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.47"/>
@@ -9787,17 +10093,17 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>32</v>
+      <c r="A1" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>15</v>
@@ -9807,2523 +10113,2523 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>35</v>
+      <c r="A2" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>40</v>
+      <c r="A3" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>44</v>
+      <c r="A4" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>69</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>47</v>
+      <c r="A5" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>50</v>
+      <c r="A6" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>52</v>
+      <c r="A7" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>77</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>54</v>
+      <c r="A8" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>56</v>
+      <c r="A9" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>81</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>57</v>
+      <c r="A10" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>59</v>
+      <c r="A11" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>61</v>
+      <c r="A12" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>86</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>63</v>
+      <c r="A13" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>39</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>58</v>
+      <c r="A15" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>83</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="39" t="s">
+      <c r="C26" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="39" t="s">
+      <c r="C38" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="39" t="s">
+      <c r="C50" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B62" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="39" t="s">
+      <c r="C62" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="B71" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="B72" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B73" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="C74" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="B80" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="B81" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="B85" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="43" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="39" t="s">
+      <c r="C86" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="B87" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="B88" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B90" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="43" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="B46" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="B48" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="39" t="s">
+      <c r="B91" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="B49" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="B54" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="B55" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="B56" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="B57" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B59" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="B60" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B61" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="B62" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="B63" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="B64" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="B65" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="B68" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="B69" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="B70" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="B71" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" s="3" t="s">
+      <c r="B92" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="43" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="B72" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="B73" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B74" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="B75" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="B76" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="B77" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="B78" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="B79" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="B80" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="B81" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B82" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="B83" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="B84" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="B85" s="39" t="s">
+      <c r="B93" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="B86" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="B87" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="B88" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="B89" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B90" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B92" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="B93" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="B94" s="39" t="s">
-        <v>165</v>
+      <c r="B94" s="43" t="s">
+        <v>190</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="B95" s="39" t="s">
-        <v>169</v>
+      <c r="A95" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="43" t="s">
+        <v>194</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="B96" s="39" t="s">
-        <v>175</v>
+      <c r="A96" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" s="43" t="s">
+        <v>200</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="B97" s="39" t="s">
-        <v>184</v>
+      <c r="A97" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="B97" s="43" t="s">
+        <v>209</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C98" s="3" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C99" s="3" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C100" s="3" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C101" s="3" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C102" s="3" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C103" s="3" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C104" s="3" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C105" s="3" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C106" s="3" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C107" s="3" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C108" s="3" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C109" s="3" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C110" s="3" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C111" s="3" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C112" s="3" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C113" s="3" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C114" s="3" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C115" s="3" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C116" s="3" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C117" s="3" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C118" s="3" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C119" s="3" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C120" s="3" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C121" s="3" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C122" s="3" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C123" s="3" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C124" s="3" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C125" s="3" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C126" s="3" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C127" s="3" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C128" s="3" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C129" s="3" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C130" s="3" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C131" s="3" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C132" s="3" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C133" s="3" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C134" s="3" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C135" s="3" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C136" s="3" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C137" s="3" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C138" s="3" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C139" s="3" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C140" s="3" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C141" s="3" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C142" s="3" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C143" s="3" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C144" s="3" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C145" s="3" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C146" s="3" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C147" s="3" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C148" s="3" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C149" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C150" s="3" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C151" s="3" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C152" s="3" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C153" s="3" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C154" s="3" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C155" s="3" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C156" s="3" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C157" s="3" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C158" s="3" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C159" s="3" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C160" s="3" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C161" s="3" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C162" s="3" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C163" s="3" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C164" s="3" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C165" s="3" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C166" s="3" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C167" s="3" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C168" s="3" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C169" s="3" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C170" s="3" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C171" s="3" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C172" s="3" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C173" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C174" s="3" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C175" s="3" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C176" s="3" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C177" s="3" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C178" s="3" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C179" s="3" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C180" s="3" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C181" s="3" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C182" s="3" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C183" s="3" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C184" s="3" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C185" s="3" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C186" s="3" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C187" s="3" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C188" s="3" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C189" s="3" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C190" s="3" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C191" s="3" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C192" s="3" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C193" s="3" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C194" s="3" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C195" s="3" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C196" s="3" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C197" s="3" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C198" s="3" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C199" s="3" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C200" s="3" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C201" s="3" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C202" s="3" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C203" s="3" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C204" s="3" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C205" s="3" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C206" s="3" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C207" s="3" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C208" s="3" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C209" s="3" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C210" s="3" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C211" s="3" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C212" s="3" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C213" s="3" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C214" s="3" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C215" s="3" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C216" s="3" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C217" s="3" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C218" s="3" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C219" s="3" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C220" s="3" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C221" s="3" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C222" s="3" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C223" s="3" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C224" s="3" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C225" s="3" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C226" s="3" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C227" s="3" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C228" s="3" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C229" s="3" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C230" s="3" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C231" s="3" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C232" s="3" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C233" s="3" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C234" s="3" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C235" s="3" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C236" s="3" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C237" s="3" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C238" s="3" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C239" s="3" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C240" s="3" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C241" s="3" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C242" s="3" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C243" s="3" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C244" s="3" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C245" s="3" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C246" s="3" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C247" s="3" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C248" s="3" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C249" s="3" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C250" s="3" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C251" s="3" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C252" s="3" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C253" s="3" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C254" s="3" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C255" s="3" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C256" s="3" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C257" s="3" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C258" s="3" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C259" s="3" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C260" s="3" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C261" s="3" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C262" s="3" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C263" s="3" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C264" s="3" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C265" s="3" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C266" s="3" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C267" s="3" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C268" s="3" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C269" s="3" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C270" s="3" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C271" s="3" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C272" s="3" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C273" s="3" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C274" s="3" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C275" s="3" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C276" s="3" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C277" s="3" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C278" s="3" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C279" s="3" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C280" s="3" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C281" s="3" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C282" s="3" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C283" s="3" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C284" s="3" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C285" s="3" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C286" s="3" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C287" s="3" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C288" s="3" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C289" s="3" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C290" s="3" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C291" s="3" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C292" s="3" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C293" s="3" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C294" s="3" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C295" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C296" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C297" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C298" s="3" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C299" s="3" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C300" s="3" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C301" s="3" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C302" s="3" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C303" s="3" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C304" s="3" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C305" s="3" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C306" s="3" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C307" s="3" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C308" s="3" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C309" s="3" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C310" s="3" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C311" s="3" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C312" s="3" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C313" s="3" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C314" s="3" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C315" s="3" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C316" s="3" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C317" s="3" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C318" s="3" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C319" s="3" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C320" s="3" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C321" s="3" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C322" s="3" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C323" s="3" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C324" s="3" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C325" s="3" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C326" s="3" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C327" s="3" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C328" s="3" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C329" s="3" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C330" s="3" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C331" s="3" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C332" s="3" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C333" s="3" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C334" s="3" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C335" s="3" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C336" s="3" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C337" s="3" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C338" s="3" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C339" s="3" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C340" s="3" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C341" s="3" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C342" s="3" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C343" s="3" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C344" s="3" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C345" s="3" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C346" s="3" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C347" s="3" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C348" s="3" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C349" s="3" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C350" s="3" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C351" s="3" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C352" s="3" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C353" s="3" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C354" s="3" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C355" s="3" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C356" s="3" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C357" s="3" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C358" s="3" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C359" s="3" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C360" s="3" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C361" s="3" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C362" s="3" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C363" s="3" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C364" s="3" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C365" s="3" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C366" s="3" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C367" s="3" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C368" s="3" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C369" s="3" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C370" s="3" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C371" s="3" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C372" s="3" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C373" s="3" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C374" s="3" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C375" s="3" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C376" s="3" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C377" s="3" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C378" s="3" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C379" s="3" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C380" s="3" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C381" s="3" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C382" s="3" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C383" s="3" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C384" s="3" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C385" s="3" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/backend/fms_core/static/submission_templates/Sample_identity_QC_v5_1_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Sample_identity_QC_v5_1_0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="437">
   <si>
     <t xml:space="preserve">Sample Identity QC Template</t>
   </si>
@@ -75,6 +75,9 @@
     <t xml:space="preserve">Sample Container Coord</t>
   </si>
   <si>
+    <t xml:space="preserve">QC Container Coord</t>
+  </si>
+  <si>
     <t xml:space="preserve">Volume Used (uL)</t>
   </si>
   <si>
@@ -166,6 +169,9 @@
   </si>
   <si>
     <t xml:space="preserve">Coordinate of the sample within the container. Using the alphanumerical coordinates names (e.g. A01).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinate used during QC protocol. Using the alphanumerical coordinates names (e.g. A01).</t>
   </si>
   <si>
     <t xml:space="preserve">Amount taken during QC from the sample in uL.</t>
@@ -1828,7 +1834,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V892"/>
+  <dimension ref="A1:W892"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -1836,16 +1842,16 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="38.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="61.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="8" style="0" width="9.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1015" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="21.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="38.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="61.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="9" style="0" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1016" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1864,10 +1870,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="U3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="V3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
@@ -1882,10 +1888,13 @@
       <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="V4" s="5"/>
+      <c r="F4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="W4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
@@ -1897,3474 +1906,3861 @@
       <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="14"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="14"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="14"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="14"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="14"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="14"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="14"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="14"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="14"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="14"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="14"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="14"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="14"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="14"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="14"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="14"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="14"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="10"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="14"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="14"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="10"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="14"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="14"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="10"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="14"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="14"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="10"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="14"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="14"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="10"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="14"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="14"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="10"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="14"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="10"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="14"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="14"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="10"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="14"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="14"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="10"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="14"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="14"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="10"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="14"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="14"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="10"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="14"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="14"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="10"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="14"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="14"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="10"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="14"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="14"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="10"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="14"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="14"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="10"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="14"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="14"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="10"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="14"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="14"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="10"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="14"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="14"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="10"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="14"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="14"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="10"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="14"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="14"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="10"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="14"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="14"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="10"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="14"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="14"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="10"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="14"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="14"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="10"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="14"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="14"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="10"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="14"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="14"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="10"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="14"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="14"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="10"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="14"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="14"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="10"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="14"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="14"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="10"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="14"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="14"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="10"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="14"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="14"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="10"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="14"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="14"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="10"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="14"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="14"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="10"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="14"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="14"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="10"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="14"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="14"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="10"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="14"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="14"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="10"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="14"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="14"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="10"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="14"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="14"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="10"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="14"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="14"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="10"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="14"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="14"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="10"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="14"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="14"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="10"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="14"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="14"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="10"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="14"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="14"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="10"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="14"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="14"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="10"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="14"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="14"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="10"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="14"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="14"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="10"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="14"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="14"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="10"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="14"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="14"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="10"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="14"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="14"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="10"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="14"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="14"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="10"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="14"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="14"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="10"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="14"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="14"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="10"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="14"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="14"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="10"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="14"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="14"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="10"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="14"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="14"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="10"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="14"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="14"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="10"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="14"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="14"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="10"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="14"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="14"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="10"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="14"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="14"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="10"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="14"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="14"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="10"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="14"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="14"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="10"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="14"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="14"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="10"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="14"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="14"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="10"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="14"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="14"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="10"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="14"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="14"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="10"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="14"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="14"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="10"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="14"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="14"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="10"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="14"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="14"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="10"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="14"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="14"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="10"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="14"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="14"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="10"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="14"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="14"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="10"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="14"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="14"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="10"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="14"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="14"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="10"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="14"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="14"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="10"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="14"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="14"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="10"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="14"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="14"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="10"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="14"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="14"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="10"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="14"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="14"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="10"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="14"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="14"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="10"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="14"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="14"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="10"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="14"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="14"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="10"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="14"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="14"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="10"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="14"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="14"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="10"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="14"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="14"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="10"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="14"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="14"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="10"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="14"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="14"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="10"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="14"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="14"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="10"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="14"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="14"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="10"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="14"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="14"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="10"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="14"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="14"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="10"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="14"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="14"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="10"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="12"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="14"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="14"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="10"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="14"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="14"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="10"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="14"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="14"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="10"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="14"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="14"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="10"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="12"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="14"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="14"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="10"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="14"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="14"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="10"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="13"/>
-      <c r="G143" s="14"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="14"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="10"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="13"/>
-      <c r="G144" s="14"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="14"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="10"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="14"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="14"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="10"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="13"/>
-      <c r="G146" s="14"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="14"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="10"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="12"/>
-      <c r="F147" s="13"/>
-      <c r="G147" s="14"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="14"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="10"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="13"/>
-      <c r="G148" s="14"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="14"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="10"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="13"/>
-      <c r="G149" s="14"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="14"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="10"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="13"/>
-      <c r="G150" s="14"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="14"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="10"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="13"/>
-      <c r="G151" s="14"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="14"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="10"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="13"/>
-      <c r="G152" s="14"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="14"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="10"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="14"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="14"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="10"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="13"/>
-      <c r="G154" s="14"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="14"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="10"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="13"/>
-      <c r="G155" s="14"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="14"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="10"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="13"/>
-      <c r="G156" s="14"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="14"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="10"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="13"/>
-      <c r="G157" s="14"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="13"/>
+      <c r="H157" s="14"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="10"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="13"/>
-      <c r="G158" s="14"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="14"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="10"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="13"/>
-      <c r="G159" s="14"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="14"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="10"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="13"/>
-      <c r="G160" s="14"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="14"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="10"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="13"/>
-      <c r="G161" s="14"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="14"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="10"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
-      <c r="D162" s="10"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="13"/>
-      <c r="G162" s="14"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="14"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="10"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
-      <c r="D163" s="10"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="13"/>
-      <c r="G163" s="14"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="14"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="10"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="13"/>
-      <c r="G164" s="14"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="14"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="10"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="12"/>
-      <c r="F165" s="13"/>
-      <c r="G165" s="14"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="14"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="10"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
-      <c r="D166" s="10"/>
-      <c r="E166" s="12"/>
-      <c r="F166" s="13"/>
-      <c r="G166" s="14"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="13"/>
+      <c r="H166" s="14"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="10"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="12"/>
-      <c r="F167" s="13"/>
-      <c r="G167" s="14"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="14"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="10"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
-      <c r="D168" s="10"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="13"/>
-      <c r="G168" s="14"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="13"/>
+      <c r="H168" s="14"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="10"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
-      <c r="D169" s="10"/>
-      <c r="E169" s="12"/>
-      <c r="F169" s="13"/>
-      <c r="G169" s="14"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="13"/>
+      <c r="H169" s="14"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="10"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
-      <c r="D170" s="10"/>
-      <c r="E170" s="12"/>
-      <c r="F170" s="13"/>
-      <c r="G170" s="14"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="13"/>
+      <c r="H170" s="14"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="10"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
-      <c r="D171" s="10"/>
-      <c r="E171" s="12"/>
-      <c r="F171" s="13"/>
-      <c r="G171" s="14"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="14"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="10"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
-      <c r="D172" s="10"/>
-      <c r="E172" s="12"/>
-      <c r="F172" s="13"/>
-      <c r="G172" s="14"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="13"/>
+      <c r="H172" s="14"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="10"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="12"/>
-      <c r="F173" s="13"/>
-      <c r="G173" s="14"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="13"/>
+      <c r="H173" s="14"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="10"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
-      <c r="D174" s="10"/>
-      <c r="E174" s="12"/>
-      <c r="F174" s="13"/>
-      <c r="G174" s="14"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="13"/>
+      <c r="H174" s="14"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="10"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
-      <c r="D175" s="10"/>
-      <c r="E175" s="12"/>
-      <c r="F175" s="13"/>
-      <c r="G175" s="14"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="13"/>
+      <c r="H175" s="14"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="10"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
-      <c r="D176" s="10"/>
-      <c r="E176" s="12"/>
-      <c r="F176" s="13"/>
-      <c r="G176" s="14"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="14"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="10"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
-      <c r="D177" s="10"/>
-      <c r="E177" s="12"/>
-      <c r="F177" s="13"/>
-      <c r="G177" s="14"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="14"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="10"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
-      <c r="D178" s="10"/>
-      <c r="E178" s="12"/>
-      <c r="F178" s="13"/>
-      <c r="G178" s="14"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="13"/>
+      <c r="H178" s="14"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="10"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
-      <c r="D179" s="10"/>
-      <c r="E179" s="12"/>
-      <c r="F179" s="13"/>
-      <c r="G179" s="14"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="13"/>
+      <c r="H179" s="14"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="10"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
-      <c r="D180" s="10"/>
-      <c r="E180" s="12"/>
-      <c r="F180" s="13"/>
-      <c r="G180" s="14"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="13"/>
+      <c r="H180" s="14"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="10"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
-      <c r="D181" s="10"/>
-      <c r="E181" s="12"/>
-      <c r="F181" s="13"/>
-      <c r="G181" s="14"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="13"/>
+      <c r="H181" s="14"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="10"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
-      <c r="D182" s="10"/>
-      <c r="E182" s="12"/>
-      <c r="F182" s="13"/>
-      <c r="G182" s="14"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="13"/>
+      <c r="H182" s="14"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="10"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
-      <c r="D183" s="10"/>
-      <c r="E183" s="12"/>
-      <c r="F183" s="13"/>
-      <c r="G183" s="14"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="13"/>
+      <c r="H183" s="14"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="10"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
-      <c r="D184" s="10"/>
-      <c r="E184" s="12"/>
-      <c r="F184" s="13"/>
-      <c r="G184" s="14"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="13"/>
+      <c r="H184" s="14"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="10"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
-      <c r="D185" s="10"/>
-      <c r="E185" s="12"/>
-      <c r="F185" s="13"/>
-      <c r="G185" s="14"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="13"/>
+      <c r="H185" s="14"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="10"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
-      <c r="D186" s="10"/>
-      <c r="E186" s="12"/>
-      <c r="F186" s="13"/>
-      <c r="G186" s="14"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="10"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="13"/>
+      <c r="H186" s="14"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="10"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
-      <c r="D187" s="10"/>
-      <c r="E187" s="12"/>
-      <c r="F187" s="13"/>
-      <c r="G187" s="14"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="13"/>
+      <c r="H187" s="14"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="10"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
-      <c r="D188" s="10"/>
-      <c r="E188" s="12"/>
-      <c r="F188" s="13"/>
-      <c r="G188" s="14"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="13"/>
+      <c r="H188" s="14"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="10"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
-      <c r="D189" s="10"/>
-      <c r="E189" s="12"/>
-      <c r="F189" s="13"/>
-      <c r="G189" s="14"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="13"/>
+      <c r="H189" s="14"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="10"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
-      <c r="D190" s="10"/>
-      <c r="E190" s="12"/>
-      <c r="F190" s="13"/>
-      <c r="G190" s="14"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="13"/>
+      <c r="H190" s="14"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="10"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
-      <c r="D191" s="10"/>
-      <c r="E191" s="12"/>
-      <c r="F191" s="13"/>
-      <c r="G191" s="14"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="13"/>
+      <c r="H191" s="14"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="10"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
-      <c r="D192" s="10"/>
-      <c r="E192" s="12"/>
-      <c r="F192" s="13"/>
-      <c r="G192" s="14"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="13"/>
+      <c r="H192" s="14"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="10"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
-      <c r="D193" s="10"/>
-      <c r="E193" s="12"/>
-      <c r="F193" s="13"/>
-      <c r="G193" s="14"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="13"/>
+      <c r="H193" s="14"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="10"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
-      <c r="D194" s="10"/>
-      <c r="E194" s="12"/>
-      <c r="F194" s="13"/>
-      <c r="G194" s="14"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="13"/>
+      <c r="H194" s="14"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="10"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
-      <c r="D195" s="10"/>
-      <c r="E195" s="12"/>
-      <c r="F195" s="13"/>
-      <c r="G195" s="14"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="13"/>
+      <c r="H195" s="14"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="10"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
-      <c r="D196" s="10"/>
-      <c r="E196" s="12"/>
-      <c r="F196" s="13"/>
-      <c r="G196" s="14"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="13"/>
+      <c r="H196" s="14"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="10"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
-      <c r="D197" s="10"/>
-      <c r="E197" s="12"/>
-      <c r="F197" s="13"/>
-      <c r="G197" s="14"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="12"/>
+      <c r="G197" s="13"/>
+      <c r="H197" s="14"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="10"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
-      <c r="D198" s="10"/>
-      <c r="E198" s="12"/>
-      <c r="F198" s="13"/>
-      <c r="G198" s="14"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="10"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="13"/>
+      <c r="H198" s="14"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="10"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
-      <c r="D199" s="10"/>
-      <c r="E199" s="12"/>
-      <c r="F199" s="13"/>
-      <c r="G199" s="14"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="13"/>
+      <c r="H199" s="14"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="10"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
-      <c r="D200" s="10"/>
-      <c r="E200" s="12"/>
-      <c r="F200" s="13"/>
-      <c r="G200" s="14"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="13"/>
+      <c r="H200" s="14"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="10"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
-      <c r="D201" s="10"/>
-      <c r="E201" s="12"/>
-      <c r="F201" s="13"/>
-      <c r="G201" s="14"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="13"/>
+      <c r="H201" s="14"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="10"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
-      <c r="D202" s="10"/>
-      <c r="E202" s="12"/>
-      <c r="F202" s="13"/>
-      <c r="G202" s="14"/>
+      <c r="D202" s="11"/>
+      <c r="E202" s="10"/>
+      <c r="F202" s="12"/>
+      <c r="G202" s="13"/>
+      <c r="H202" s="14"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="10"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
-      <c r="D203" s="10"/>
-      <c r="E203" s="12"/>
-      <c r="F203" s="13"/>
-      <c r="G203" s="14"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="12"/>
+      <c r="G203" s="13"/>
+      <c r="H203" s="14"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="10"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
-      <c r="D204" s="10"/>
-      <c r="E204" s="12"/>
-      <c r="F204" s="13"/>
-      <c r="G204" s="14"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="12"/>
+      <c r="G204" s="13"/>
+      <c r="H204" s="14"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="10"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
-      <c r="D205" s="10"/>
-      <c r="E205" s="12"/>
-      <c r="F205" s="13"/>
-      <c r="G205" s="14"/>
+      <c r="D205" s="11"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="12"/>
+      <c r="G205" s="13"/>
+      <c r="H205" s="14"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="10"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
-      <c r="D206" s="10"/>
-      <c r="E206" s="12"/>
-      <c r="F206" s="13"/>
-      <c r="G206" s="14"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="12"/>
+      <c r="G206" s="13"/>
+      <c r="H206" s="14"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="10"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
-      <c r="D207" s="10"/>
-      <c r="E207" s="12"/>
-      <c r="F207" s="13"/>
-      <c r="G207" s="14"/>
+      <c r="D207" s="11"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="12"/>
+      <c r="G207" s="13"/>
+      <c r="H207" s="14"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="10"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
-      <c r="D208" s="10"/>
-      <c r="E208" s="12"/>
-      <c r="F208" s="13"/>
-      <c r="G208" s="14"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="12"/>
+      <c r="G208" s="13"/>
+      <c r="H208" s="14"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="10"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
-      <c r="D209" s="10"/>
-      <c r="E209" s="12"/>
-      <c r="F209" s="13"/>
-      <c r="G209" s="14"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="12"/>
+      <c r="G209" s="13"/>
+      <c r="H209" s="14"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="10"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
-      <c r="D210" s="10"/>
-      <c r="E210" s="12"/>
-      <c r="F210" s="13"/>
-      <c r="G210" s="14"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="12"/>
+      <c r="G210" s="13"/>
+      <c r="H210" s="14"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="10"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
-      <c r="D211" s="10"/>
-      <c r="E211" s="12"/>
-      <c r="F211" s="13"/>
-      <c r="G211" s="14"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="12"/>
+      <c r="G211" s="13"/>
+      <c r="H211" s="14"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="10"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
-      <c r="D212" s="10"/>
-      <c r="E212" s="12"/>
-      <c r="F212" s="13"/>
-      <c r="G212" s="14"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="10"/>
+      <c r="F212" s="12"/>
+      <c r="G212" s="13"/>
+      <c r="H212" s="14"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="10"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
-      <c r="D213" s="10"/>
-      <c r="E213" s="12"/>
-      <c r="F213" s="13"/>
-      <c r="G213" s="14"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="12"/>
+      <c r="G213" s="13"/>
+      <c r="H213" s="14"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="10"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
-      <c r="D214" s="10"/>
-      <c r="E214" s="12"/>
-      <c r="F214" s="13"/>
-      <c r="G214" s="14"/>
+      <c r="D214" s="11"/>
+      <c r="E214" s="10"/>
+      <c r="F214" s="12"/>
+      <c r="G214" s="13"/>
+      <c r="H214" s="14"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="10"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
-      <c r="D215" s="10"/>
-      <c r="E215" s="12"/>
-      <c r="F215" s="13"/>
-      <c r="G215" s="14"/>
+      <c r="D215" s="11"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="12"/>
+      <c r="G215" s="13"/>
+      <c r="H215" s="14"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="10"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
-      <c r="D216" s="10"/>
-      <c r="E216" s="12"/>
-      <c r="F216" s="13"/>
-      <c r="G216" s="14"/>
+      <c r="D216" s="11"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="12"/>
+      <c r="G216" s="13"/>
+      <c r="H216" s="14"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="10"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
-      <c r="D217" s="10"/>
-      <c r="E217" s="12"/>
-      <c r="F217" s="13"/>
-      <c r="G217" s="14"/>
+      <c r="D217" s="11"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="12"/>
+      <c r="G217" s="13"/>
+      <c r="H217" s="14"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="10"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
-      <c r="D218" s="10"/>
-      <c r="E218" s="12"/>
-      <c r="F218" s="13"/>
-      <c r="G218" s="14"/>
+      <c r="D218" s="11"/>
+      <c r="E218" s="10"/>
+      <c r="F218" s="12"/>
+      <c r="G218" s="13"/>
+      <c r="H218" s="14"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="10"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
-      <c r="D219" s="10"/>
-      <c r="E219" s="12"/>
-      <c r="F219" s="13"/>
-      <c r="G219" s="14"/>
+      <c r="D219" s="11"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="12"/>
+      <c r="G219" s="13"/>
+      <c r="H219" s="14"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="10"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
-      <c r="D220" s="10"/>
-      <c r="E220" s="12"/>
-      <c r="F220" s="13"/>
-      <c r="G220" s="14"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="12"/>
+      <c r="G220" s="13"/>
+      <c r="H220" s="14"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="10"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
-      <c r="D221" s="10"/>
-      <c r="E221" s="12"/>
-      <c r="F221" s="13"/>
-      <c r="G221" s="14"/>
+      <c r="D221" s="11"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="12"/>
+      <c r="G221" s="13"/>
+      <c r="H221" s="14"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="10"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
-      <c r="D222" s="10"/>
-      <c r="E222" s="12"/>
-      <c r="F222" s="13"/>
-      <c r="G222" s="14"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="10"/>
+      <c r="F222" s="12"/>
+      <c r="G222" s="13"/>
+      <c r="H222" s="14"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="10"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
-      <c r="D223" s="10"/>
-      <c r="E223" s="12"/>
-      <c r="F223" s="13"/>
-      <c r="G223" s="14"/>
+      <c r="D223" s="11"/>
+      <c r="E223" s="10"/>
+      <c r="F223" s="12"/>
+      <c r="G223" s="13"/>
+      <c r="H223" s="14"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="10"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
-      <c r="D224" s="10"/>
-      <c r="E224" s="12"/>
-      <c r="F224" s="13"/>
-      <c r="G224" s="14"/>
+      <c r="D224" s="11"/>
+      <c r="E224" s="10"/>
+      <c r="F224" s="12"/>
+      <c r="G224" s="13"/>
+      <c r="H224" s="14"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="10"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
-      <c r="D225" s="10"/>
-      <c r="E225" s="12"/>
-      <c r="F225" s="13"/>
-      <c r="G225" s="14"/>
+      <c r="D225" s="11"/>
+      <c r="E225" s="10"/>
+      <c r="F225" s="12"/>
+      <c r="G225" s="13"/>
+      <c r="H225" s="14"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="10"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
-      <c r="D226" s="10"/>
-      <c r="E226" s="12"/>
-      <c r="F226" s="13"/>
-      <c r="G226" s="14"/>
+      <c r="D226" s="11"/>
+      <c r="E226" s="10"/>
+      <c r="F226" s="12"/>
+      <c r="G226" s="13"/>
+      <c r="H226" s="14"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="10"/>
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
-      <c r="D227" s="10"/>
-      <c r="E227" s="12"/>
-      <c r="F227" s="13"/>
-      <c r="G227" s="14"/>
+      <c r="D227" s="11"/>
+      <c r="E227" s="10"/>
+      <c r="F227" s="12"/>
+      <c r="G227" s="13"/>
+      <c r="H227" s="14"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="10"/>
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
-      <c r="D228" s="10"/>
-      <c r="E228" s="12"/>
-      <c r="F228" s="13"/>
-      <c r="G228" s="14"/>
+      <c r="D228" s="11"/>
+      <c r="E228" s="10"/>
+      <c r="F228" s="12"/>
+      <c r="G228" s="13"/>
+      <c r="H228" s="14"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="10"/>
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
-      <c r="D229" s="10"/>
-      <c r="E229" s="12"/>
-      <c r="F229" s="13"/>
-      <c r="G229" s="14"/>
+      <c r="D229" s="11"/>
+      <c r="E229" s="10"/>
+      <c r="F229" s="12"/>
+      <c r="G229" s="13"/>
+      <c r="H229" s="14"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="10"/>
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
-      <c r="D230" s="10"/>
-      <c r="E230" s="12"/>
-      <c r="F230" s="13"/>
-      <c r="G230" s="14"/>
+      <c r="D230" s="11"/>
+      <c r="E230" s="10"/>
+      <c r="F230" s="12"/>
+      <c r="G230" s="13"/>
+      <c r="H230" s="14"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="10"/>
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
-      <c r="D231" s="10"/>
-      <c r="E231" s="12"/>
-      <c r="F231" s="13"/>
-      <c r="G231" s="14"/>
+      <c r="D231" s="11"/>
+      <c r="E231" s="10"/>
+      <c r="F231" s="12"/>
+      <c r="G231" s="13"/>
+      <c r="H231" s="14"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="10"/>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
-      <c r="D232" s="10"/>
-      <c r="E232" s="12"/>
-      <c r="F232" s="13"/>
-      <c r="G232" s="14"/>
+      <c r="D232" s="11"/>
+      <c r="E232" s="10"/>
+      <c r="F232" s="12"/>
+      <c r="G232" s="13"/>
+      <c r="H232" s="14"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="10"/>
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
-      <c r="D233" s="10"/>
-      <c r="E233" s="12"/>
-      <c r="F233" s="13"/>
-      <c r="G233" s="14"/>
+      <c r="D233" s="11"/>
+      <c r="E233" s="10"/>
+      <c r="F233" s="12"/>
+      <c r="G233" s="13"/>
+      <c r="H233" s="14"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="10"/>
       <c r="B234" s="11"/>
       <c r="C234" s="11"/>
-      <c r="D234" s="10"/>
-      <c r="E234" s="12"/>
-      <c r="F234" s="13"/>
-      <c r="G234" s="14"/>
+      <c r="D234" s="11"/>
+      <c r="E234" s="10"/>
+      <c r="F234" s="12"/>
+      <c r="G234" s="13"/>
+      <c r="H234" s="14"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="10"/>
       <c r="B235" s="11"/>
       <c r="C235" s="11"/>
-      <c r="D235" s="10"/>
-      <c r="E235" s="12"/>
-      <c r="F235" s="13"/>
-      <c r="G235" s="14"/>
+      <c r="D235" s="11"/>
+      <c r="E235" s="10"/>
+      <c r="F235" s="12"/>
+      <c r="G235" s="13"/>
+      <c r="H235" s="14"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="10"/>
       <c r="B236" s="11"/>
       <c r="C236" s="11"/>
-      <c r="D236" s="10"/>
-      <c r="E236" s="12"/>
-      <c r="F236" s="13"/>
-      <c r="G236" s="14"/>
+      <c r="D236" s="11"/>
+      <c r="E236" s="10"/>
+      <c r="F236" s="12"/>
+      <c r="G236" s="13"/>
+      <c r="H236" s="14"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="10"/>
       <c r="B237" s="11"/>
       <c r="C237" s="11"/>
-      <c r="D237" s="10"/>
-      <c r="E237" s="12"/>
-      <c r="F237" s="13"/>
-      <c r="G237" s="14"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="10"/>
+      <c r="F237" s="12"/>
+      <c r="G237" s="13"/>
+      <c r="H237" s="14"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="10"/>
       <c r="B238" s="11"/>
       <c r="C238" s="11"/>
-      <c r="D238" s="10"/>
-      <c r="E238" s="12"/>
-      <c r="F238" s="13"/>
-      <c r="G238" s="14"/>
+      <c r="D238" s="11"/>
+      <c r="E238" s="10"/>
+      <c r="F238" s="12"/>
+      <c r="G238" s="13"/>
+      <c r="H238" s="14"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="10"/>
       <c r="B239" s="11"/>
       <c r="C239" s="11"/>
-      <c r="D239" s="10"/>
-      <c r="E239" s="12"/>
-      <c r="F239" s="13"/>
-      <c r="G239" s="14"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="10"/>
+      <c r="F239" s="12"/>
+      <c r="G239" s="13"/>
+      <c r="H239" s="14"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="10"/>
       <c r="B240" s="11"/>
       <c r="C240" s="11"/>
-      <c r="D240" s="10"/>
-      <c r="E240" s="12"/>
-      <c r="F240" s="13"/>
-      <c r="G240" s="14"/>
+      <c r="D240" s="11"/>
+      <c r="E240" s="10"/>
+      <c r="F240" s="12"/>
+      <c r="G240" s="13"/>
+      <c r="H240" s="14"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="10"/>
       <c r="B241" s="11"/>
       <c r="C241" s="11"/>
-      <c r="D241" s="10"/>
-      <c r="E241" s="12"/>
-      <c r="F241" s="13"/>
-      <c r="G241" s="14"/>
+      <c r="D241" s="11"/>
+      <c r="E241" s="10"/>
+      <c r="F241" s="12"/>
+      <c r="G241" s="13"/>
+      <c r="H241" s="14"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="10"/>
       <c r="B242" s="11"/>
       <c r="C242" s="11"/>
-      <c r="D242" s="10"/>
-      <c r="E242" s="12"/>
-      <c r="F242" s="13"/>
-      <c r="G242" s="14"/>
+      <c r="D242" s="11"/>
+      <c r="E242" s="10"/>
+      <c r="F242" s="12"/>
+      <c r="G242" s="13"/>
+      <c r="H242" s="14"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="10"/>
       <c r="B243" s="11"/>
       <c r="C243" s="11"/>
-      <c r="D243" s="10"/>
-      <c r="E243" s="12"/>
-      <c r="F243" s="13"/>
-      <c r="G243" s="14"/>
+      <c r="D243" s="11"/>
+      <c r="E243" s="10"/>
+      <c r="F243" s="12"/>
+      <c r="G243" s="13"/>
+      <c r="H243" s="14"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="10"/>
       <c r="B244" s="11"/>
       <c r="C244" s="11"/>
-      <c r="D244" s="10"/>
-      <c r="E244" s="12"/>
-      <c r="F244" s="13"/>
-      <c r="G244" s="14"/>
+      <c r="D244" s="11"/>
+      <c r="E244" s="10"/>
+      <c r="F244" s="12"/>
+      <c r="G244" s="13"/>
+      <c r="H244" s="14"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="10"/>
       <c r="B245" s="11"/>
       <c r="C245" s="11"/>
-      <c r="D245" s="10"/>
-      <c r="E245" s="12"/>
-      <c r="F245" s="13"/>
-      <c r="G245" s="14"/>
+      <c r="D245" s="11"/>
+      <c r="E245" s="10"/>
+      <c r="F245" s="12"/>
+      <c r="G245" s="13"/>
+      <c r="H245" s="14"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="10"/>
       <c r="B246" s="11"/>
       <c r="C246" s="11"/>
-      <c r="D246" s="10"/>
-      <c r="E246" s="12"/>
-      <c r="F246" s="13"/>
-      <c r="G246" s="14"/>
+      <c r="D246" s="11"/>
+      <c r="E246" s="10"/>
+      <c r="F246" s="12"/>
+      <c r="G246" s="13"/>
+      <c r="H246" s="14"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="10"/>
       <c r="B247" s="11"/>
       <c r="C247" s="11"/>
-      <c r="D247" s="10"/>
-      <c r="E247" s="12"/>
-      <c r="F247" s="13"/>
-      <c r="G247" s="14"/>
+      <c r="D247" s="11"/>
+      <c r="E247" s="10"/>
+      <c r="F247" s="12"/>
+      <c r="G247" s="13"/>
+      <c r="H247" s="14"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="10"/>
       <c r="B248" s="11"/>
       <c r="C248" s="11"/>
-      <c r="D248" s="10"/>
-      <c r="E248" s="12"/>
-      <c r="F248" s="13"/>
-      <c r="G248" s="14"/>
+      <c r="D248" s="11"/>
+      <c r="E248" s="10"/>
+      <c r="F248" s="12"/>
+      <c r="G248" s="13"/>
+      <c r="H248" s="14"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="10"/>
       <c r="B249" s="11"/>
       <c r="C249" s="11"/>
-      <c r="D249" s="10"/>
-      <c r="E249" s="12"/>
-      <c r="F249" s="13"/>
-      <c r="G249" s="14"/>
+      <c r="D249" s="11"/>
+      <c r="E249" s="10"/>
+      <c r="F249" s="12"/>
+      <c r="G249" s="13"/>
+      <c r="H249" s="14"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="10"/>
       <c r="B250" s="11"/>
       <c r="C250" s="11"/>
-      <c r="D250" s="10"/>
-      <c r="E250" s="12"/>
-      <c r="F250" s="13"/>
-      <c r="G250" s="14"/>
+      <c r="D250" s="11"/>
+      <c r="E250" s="10"/>
+      <c r="F250" s="12"/>
+      <c r="G250" s="13"/>
+      <c r="H250" s="14"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="10"/>
       <c r="B251" s="11"/>
       <c r="C251" s="11"/>
-      <c r="D251" s="10"/>
-      <c r="E251" s="12"/>
-      <c r="F251" s="13"/>
-      <c r="G251" s="14"/>
+      <c r="D251" s="11"/>
+      <c r="E251" s="10"/>
+      <c r="F251" s="12"/>
+      <c r="G251" s="13"/>
+      <c r="H251" s="14"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="10"/>
       <c r="B252" s="11"/>
       <c r="C252" s="11"/>
-      <c r="D252" s="10"/>
-      <c r="E252" s="12"/>
-      <c r="F252" s="13"/>
-      <c r="G252" s="14"/>
+      <c r="D252" s="11"/>
+      <c r="E252" s="10"/>
+      <c r="F252" s="12"/>
+      <c r="G252" s="13"/>
+      <c r="H252" s="14"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="10"/>
       <c r="B253" s="11"/>
       <c r="C253" s="11"/>
-      <c r="D253" s="10"/>
-      <c r="E253" s="12"/>
-      <c r="F253" s="13"/>
-      <c r="G253" s="14"/>
+      <c r="D253" s="11"/>
+      <c r="E253" s="10"/>
+      <c r="F253" s="12"/>
+      <c r="G253" s="13"/>
+      <c r="H253" s="14"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="10"/>
       <c r="B254" s="11"/>
       <c r="C254" s="11"/>
-      <c r="D254" s="10"/>
-      <c r="E254" s="12"/>
-      <c r="F254" s="13"/>
-      <c r="G254" s="14"/>
+      <c r="D254" s="11"/>
+      <c r="E254" s="10"/>
+      <c r="F254" s="12"/>
+      <c r="G254" s="13"/>
+      <c r="H254" s="14"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="10"/>
       <c r="B255" s="11"/>
       <c r="C255" s="11"/>
-      <c r="D255" s="10"/>
-      <c r="E255" s="12"/>
-      <c r="F255" s="13"/>
-      <c r="G255" s="14"/>
+      <c r="D255" s="11"/>
+      <c r="E255" s="10"/>
+      <c r="F255" s="12"/>
+      <c r="G255" s="13"/>
+      <c r="H255" s="14"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="10"/>
       <c r="B256" s="11"/>
       <c r="C256" s="11"/>
-      <c r="D256" s="10"/>
-      <c r="E256" s="12"/>
-      <c r="F256" s="13"/>
-      <c r="G256" s="14"/>
+      <c r="D256" s="11"/>
+      <c r="E256" s="10"/>
+      <c r="F256" s="12"/>
+      <c r="G256" s="13"/>
+      <c r="H256" s="14"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="10"/>
       <c r="B257" s="11"/>
       <c r="C257" s="11"/>
-      <c r="D257" s="10"/>
-      <c r="E257" s="12"/>
-      <c r="F257" s="13"/>
-      <c r="G257" s="14"/>
+      <c r="D257" s="11"/>
+      <c r="E257" s="10"/>
+      <c r="F257" s="12"/>
+      <c r="G257" s="13"/>
+      <c r="H257" s="14"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="10"/>
       <c r="B258" s="11"/>
       <c r="C258" s="11"/>
-      <c r="D258" s="10"/>
-      <c r="E258" s="12"/>
-      <c r="F258" s="13"/>
-      <c r="G258" s="14"/>
+      <c r="D258" s="11"/>
+      <c r="E258" s="10"/>
+      <c r="F258" s="12"/>
+      <c r="G258" s="13"/>
+      <c r="H258" s="14"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="10"/>
       <c r="B259" s="11"/>
       <c r="C259" s="11"/>
-      <c r="D259" s="10"/>
-      <c r="E259" s="12"/>
-      <c r="F259" s="13"/>
-      <c r="G259" s="14"/>
+      <c r="D259" s="11"/>
+      <c r="E259" s="10"/>
+      <c r="F259" s="12"/>
+      <c r="G259" s="13"/>
+      <c r="H259" s="14"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="10"/>
       <c r="B260" s="11"/>
       <c r="C260" s="11"/>
-      <c r="D260" s="10"/>
-      <c r="E260" s="12"/>
-      <c r="F260" s="13"/>
-      <c r="G260" s="14"/>
+      <c r="D260" s="11"/>
+      <c r="E260" s="10"/>
+      <c r="F260" s="12"/>
+      <c r="G260" s="13"/>
+      <c r="H260" s="14"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="10"/>
       <c r="B261" s="11"/>
       <c r="C261" s="11"/>
-      <c r="D261" s="10"/>
-      <c r="E261" s="12"/>
-      <c r="F261" s="13"/>
-      <c r="G261" s="14"/>
+      <c r="D261" s="11"/>
+      <c r="E261" s="10"/>
+      <c r="F261" s="12"/>
+      <c r="G261" s="13"/>
+      <c r="H261" s="14"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="10"/>
       <c r="B262" s="11"/>
       <c r="C262" s="11"/>
-      <c r="D262" s="10"/>
-      <c r="E262" s="12"/>
-      <c r="F262" s="13"/>
-      <c r="G262" s="14"/>
+      <c r="D262" s="11"/>
+      <c r="E262" s="10"/>
+      <c r="F262" s="12"/>
+      <c r="G262" s="13"/>
+      <c r="H262" s="14"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="10"/>
       <c r="B263" s="11"/>
       <c r="C263" s="11"/>
-      <c r="D263" s="10"/>
-      <c r="E263" s="12"/>
-      <c r="F263" s="13"/>
-      <c r="G263" s="14"/>
+      <c r="D263" s="11"/>
+      <c r="E263" s="10"/>
+      <c r="F263" s="12"/>
+      <c r="G263" s="13"/>
+      <c r="H263" s="14"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="10"/>
       <c r="B264" s="11"/>
       <c r="C264" s="11"/>
-      <c r="D264" s="10"/>
-      <c r="E264" s="12"/>
-      <c r="F264" s="13"/>
-      <c r="G264" s="14"/>
+      <c r="D264" s="11"/>
+      <c r="E264" s="10"/>
+      <c r="F264" s="12"/>
+      <c r="G264" s="13"/>
+      <c r="H264" s="14"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="10"/>
       <c r="B265" s="11"/>
       <c r="C265" s="11"/>
-      <c r="D265" s="10"/>
-      <c r="E265" s="12"/>
-      <c r="F265" s="13"/>
-      <c r="G265" s="14"/>
+      <c r="D265" s="11"/>
+      <c r="E265" s="10"/>
+      <c r="F265" s="12"/>
+      <c r="G265" s="13"/>
+      <c r="H265" s="14"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="10"/>
       <c r="B266" s="11"/>
       <c r="C266" s="11"/>
-      <c r="D266" s="10"/>
-      <c r="E266" s="12"/>
-      <c r="F266" s="13"/>
-      <c r="G266" s="14"/>
+      <c r="D266" s="11"/>
+      <c r="E266" s="10"/>
+      <c r="F266" s="12"/>
+      <c r="G266" s="13"/>
+      <c r="H266" s="14"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="10"/>
       <c r="B267" s="11"/>
       <c r="C267" s="11"/>
-      <c r="D267" s="10"/>
-      <c r="E267" s="12"/>
-      <c r="F267" s="13"/>
-      <c r="G267" s="14"/>
+      <c r="D267" s="11"/>
+      <c r="E267" s="10"/>
+      <c r="F267" s="12"/>
+      <c r="G267" s="13"/>
+      <c r="H267" s="14"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="10"/>
       <c r="B268" s="11"/>
       <c r="C268" s="11"/>
-      <c r="D268" s="10"/>
-      <c r="E268" s="12"/>
-      <c r="F268" s="13"/>
-      <c r="G268" s="14"/>
+      <c r="D268" s="11"/>
+      <c r="E268" s="10"/>
+      <c r="F268" s="12"/>
+      <c r="G268" s="13"/>
+      <c r="H268" s="14"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="10"/>
       <c r="B269" s="11"/>
       <c r="C269" s="11"/>
-      <c r="D269" s="10"/>
-      <c r="E269" s="12"/>
-      <c r="F269" s="13"/>
-      <c r="G269" s="14"/>
+      <c r="D269" s="11"/>
+      <c r="E269" s="10"/>
+      <c r="F269" s="12"/>
+      <c r="G269" s="13"/>
+      <c r="H269" s="14"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="10"/>
       <c r="B270" s="11"/>
       <c r="C270" s="11"/>
-      <c r="D270" s="10"/>
-      <c r="E270" s="12"/>
-      <c r="F270" s="13"/>
-      <c r="G270" s="14"/>
+      <c r="D270" s="11"/>
+      <c r="E270" s="10"/>
+      <c r="F270" s="12"/>
+      <c r="G270" s="13"/>
+      <c r="H270" s="14"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="10"/>
       <c r="B271" s="11"/>
       <c r="C271" s="11"/>
-      <c r="D271" s="10"/>
-      <c r="E271" s="12"/>
-      <c r="F271" s="13"/>
-      <c r="G271" s="14"/>
+      <c r="D271" s="11"/>
+      <c r="E271" s="10"/>
+      <c r="F271" s="12"/>
+      <c r="G271" s="13"/>
+      <c r="H271" s="14"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="10"/>
       <c r="B272" s="11"/>
       <c r="C272" s="11"/>
-      <c r="D272" s="10"/>
-      <c r="E272" s="12"/>
-      <c r="F272" s="13"/>
-      <c r="G272" s="14"/>
+      <c r="D272" s="11"/>
+      <c r="E272" s="10"/>
+      <c r="F272" s="12"/>
+      <c r="G272" s="13"/>
+      <c r="H272" s="14"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="10"/>
       <c r="B273" s="11"/>
       <c r="C273" s="11"/>
-      <c r="D273" s="10"/>
-      <c r="E273" s="12"/>
-      <c r="F273" s="13"/>
-      <c r="G273" s="14"/>
+      <c r="D273" s="11"/>
+      <c r="E273" s="10"/>
+      <c r="F273" s="12"/>
+      <c r="G273" s="13"/>
+      <c r="H273" s="14"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="10"/>
       <c r="B274" s="11"/>
       <c r="C274" s="11"/>
-      <c r="D274" s="10"/>
-      <c r="E274" s="12"/>
-      <c r="F274" s="13"/>
-      <c r="G274" s="14"/>
+      <c r="D274" s="11"/>
+      <c r="E274" s="10"/>
+      <c r="F274" s="12"/>
+      <c r="G274" s="13"/>
+      <c r="H274" s="14"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="10"/>
       <c r="B275" s="11"/>
       <c r="C275" s="11"/>
-      <c r="D275" s="10"/>
-      <c r="E275" s="12"/>
-      <c r="F275" s="13"/>
-      <c r="G275" s="14"/>
+      <c r="D275" s="11"/>
+      <c r="E275" s="10"/>
+      <c r="F275" s="12"/>
+      <c r="G275" s="13"/>
+      <c r="H275" s="14"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="10"/>
       <c r="B276" s="11"/>
       <c r="C276" s="11"/>
-      <c r="D276" s="10"/>
-      <c r="E276" s="12"/>
-      <c r="F276" s="13"/>
-      <c r="G276" s="14"/>
+      <c r="D276" s="11"/>
+      <c r="E276" s="10"/>
+      <c r="F276" s="12"/>
+      <c r="G276" s="13"/>
+      <c r="H276" s="14"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="10"/>
       <c r="B277" s="11"/>
       <c r="C277" s="11"/>
-      <c r="D277" s="10"/>
-      <c r="E277" s="12"/>
-      <c r="F277" s="13"/>
-      <c r="G277" s="14"/>
+      <c r="D277" s="11"/>
+      <c r="E277" s="10"/>
+      <c r="F277" s="12"/>
+      <c r="G277" s="13"/>
+      <c r="H277" s="14"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="10"/>
       <c r="B278" s="11"/>
       <c r="C278" s="11"/>
-      <c r="D278" s="10"/>
-      <c r="E278" s="12"/>
-      <c r="F278" s="13"/>
-      <c r="G278" s="14"/>
+      <c r="D278" s="11"/>
+      <c r="E278" s="10"/>
+      <c r="F278" s="12"/>
+      <c r="G278" s="13"/>
+      <c r="H278" s="14"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="10"/>
       <c r="B279" s="11"/>
       <c r="C279" s="11"/>
-      <c r="D279" s="10"/>
-      <c r="E279" s="12"/>
-      <c r="F279" s="13"/>
-      <c r="G279" s="14"/>
+      <c r="D279" s="11"/>
+      <c r="E279" s="10"/>
+      <c r="F279" s="12"/>
+      <c r="G279" s="13"/>
+      <c r="H279" s="14"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="10"/>
       <c r="B280" s="11"/>
       <c r="C280" s="11"/>
-      <c r="D280" s="10"/>
-      <c r="E280" s="12"/>
-      <c r="F280" s="13"/>
-      <c r="G280" s="14"/>
+      <c r="D280" s="11"/>
+      <c r="E280" s="10"/>
+      <c r="F280" s="12"/>
+      <c r="G280" s="13"/>
+      <c r="H280" s="14"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="10"/>
       <c r="B281" s="11"/>
       <c r="C281" s="11"/>
-      <c r="D281" s="10"/>
-      <c r="E281" s="12"/>
-      <c r="F281" s="13"/>
-      <c r="G281" s="14"/>
+      <c r="D281" s="11"/>
+      <c r="E281" s="10"/>
+      <c r="F281" s="12"/>
+      <c r="G281" s="13"/>
+      <c r="H281" s="14"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="10"/>
       <c r="B282" s="11"/>
       <c r="C282" s="11"/>
-      <c r="D282" s="10"/>
-      <c r="E282" s="12"/>
-      <c r="F282" s="13"/>
-      <c r="G282" s="14"/>
+      <c r="D282" s="11"/>
+      <c r="E282" s="10"/>
+      <c r="F282" s="12"/>
+      <c r="G282" s="13"/>
+      <c r="H282" s="14"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="10"/>
       <c r="B283" s="11"/>
       <c r="C283" s="11"/>
-      <c r="D283" s="10"/>
-      <c r="E283" s="12"/>
-      <c r="F283" s="13"/>
-      <c r="G283" s="14"/>
+      <c r="D283" s="11"/>
+      <c r="E283" s="10"/>
+      <c r="F283" s="12"/>
+      <c r="G283" s="13"/>
+      <c r="H283" s="14"/>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="10"/>
       <c r="B284" s="11"/>
       <c r="C284" s="11"/>
-      <c r="D284" s="10"/>
-      <c r="E284" s="12"/>
-      <c r="F284" s="13"/>
-      <c r="G284" s="14"/>
+      <c r="D284" s="11"/>
+      <c r="E284" s="10"/>
+      <c r="F284" s="12"/>
+      <c r="G284" s="13"/>
+      <c r="H284" s="14"/>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="10"/>
       <c r="B285" s="11"/>
       <c r="C285" s="11"/>
-      <c r="D285" s="10"/>
-      <c r="E285" s="12"/>
-      <c r="F285" s="13"/>
-      <c r="G285" s="14"/>
+      <c r="D285" s="11"/>
+      <c r="E285" s="10"/>
+      <c r="F285" s="12"/>
+      <c r="G285" s="13"/>
+      <c r="H285" s="14"/>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="10"/>
       <c r="B286" s="11"/>
       <c r="C286" s="11"/>
-      <c r="D286" s="10"/>
-      <c r="E286" s="12"/>
-      <c r="F286" s="13"/>
-      <c r="G286" s="14"/>
+      <c r="D286" s="11"/>
+      <c r="E286" s="10"/>
+      <c r="F286" s="12"/>
+      <c r="G286" s="13"/>
+      <c r="H286" s="14"/>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="10"/>
       <c r="B287" s="11"/>
       <c r="C287" s="11"/>
-      <c r="D287" s="10"/>
-      <c r="E287" s="12"/>
-      <c r="F287" s="13"/>
-      <c r="G287" s="14"/>
+      <c r="D287" s="11"/>
+      <c r="E287" s="10"/>
+      <c r="F287" s="12"/>
+      <c r="G287" s="13"/>
+      <c r="H287" s="14"/>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="10"/>
       <c r="B288" s="11"/>
       <c r="C288" s="11"/>
-      <c r="D288" s="10"/>
-      <c r="E288" s="12"/>
-      <c r="F288" s="13"/>
-      <c r="G288" s="14"/>
+      <c r="D288" s="11"/>
+      <c r="E288" s="10"/>
+      <c r="F288" s="12"/>
+      <c r="G288" s="13"/>
+      <c r="H288" s="14"/>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="10"/>
       <c r="B289" s="11"/>
       <c r="C289" s="11"/>
-      <c r="D289" s="10"/>
-      <c r="E289" s="12"/>
-      <c r="F289" s="13"/>
-      <c r="G289" s="14"/>
+      <c r="D289" s="11"/>
+      <c r="E289" s="10"/>
+      <c r="F289" s="12"/>
+      <c r="G289" s="13"/>
+      <c r="H289" s="14"/>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="10"/>
       <c r="B290" s="11"/>
       <c r="C290" s="11"/>
-      <c r="D290" s="10"/>
-      <c r="E290" s="12"/>
-      <c r="F290" s="13"/>
-      <c r="G290" s="14"/>
+      <c r="D290" s="11"/>
+      <c r="E290" s="10"/>
+      <c r="F290" s="12"/>
+      <c r="G290" s="13"/>
+      <c r="H290" s="14"/>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="10"/>
       <c r="B291" s="11"/>
       <c r="C291" s="11"/>
-      <c r="D291" s="10"/>
-      <c r="E291" s="12"/>
-      <c r="F291" s="13"/>
-      <c r="G291" s="14"/>
+      <c r="D291" s="11"/>
+      <c r="E291" s="10"/>
+      <c r="F291" s="12"/>
+      <c r="G291" s="13"/>
+      <c r="H291" s="14"/>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="10"/>
       <c r="B292" s="11"/>
       <c r="C292" s="11"/>
-      <c r="D292" s="10"/>
-      <c r="E292" s="12"/>
-      <c r="F292" s="13"/>
-      <c r="G292" s="14"/>
+      <c r="D292" s="11"/>
+      <c r="E292" s="10"/>
+      <c r="F292" s="12"/>
+      <c r="G292" s="13"/>
+      <c r="H292" s="14"/>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="10"/>
       <c r="B293" s="11"/>
       <c r="C293" s="11"/>
-      <c r="D293" s="10"/>
-      <c r="E293" s="12"/>
-      <c r="F293" s="13"/>
-      <c r="G293" s="14"/>
+      <c r="D293" s="11"/>
+      <c r="E293" s="10"/>
+      <c r="F293" s="12"/>
+      <c r="G293" s="13"/>
+      <c r="H293" s="14"/>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="10"/>
       <c r="B294" s="11"/>
       <c r="C294" s="11"/>
-      <c r="D294" s="10"/>
-      <c r="E294" s="12"/>
-      <c r="F294" s="13"/>
-      <c r="G294" s="14"/>
+      <c r="D294" s="11"/>
+      <c r="E294" s="10"/>
+      <c r="F294" s="12"/>
+      <c r="G294" s="13"/>
+      <c r="H294" s="14"/>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="10"/>
       <c r="B295" s="11"/>
       <c r="C295" s="11"/>
-      <c r="D295" s="10"/>
-      <c r="E295" s="12"/>
-      <c r="F295" s="13"/>
-      <c r="G295" s="14"/>
+      <c r="D295" s="11"/>
+      <c r="E295" s="10"/>
+      <c r="F295" s="12"/>
+      <c r="G295" s="13"/>
+      <c r="H295" s="14"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="10"/>
       <c r="B296" s="11"/>
       <c r="C296" s="11"/>
-      <c r="D296" s="10"/>
-      <c r="E296" s="12"/>
-      <c r="F296" s="13"/>
-      <c r="G296" s="14"/>
+      <c r="D296" s="11"/>
+      <c r="E296" s="10"/>
+      <c r="F296" s="12"/>
+      <c r="G296" s="13"/>
+      <c r="H296" s="14"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="10"/>
       <c r="B297" s="11"/>
       <c r="C297" s="11"/>
-      <c r="D297" s="10"/>
-      <c r="E297" s="12"/>
-      <c r="F297" s="13"/>
-      <c r="G297" s="14"/>
+      <c r="D297" s="11"/>
+      <c r="E297" s="10"/>
+      <c r="F297" s="12"/>
+      <c r="G297" s="13"/>
+      <c r="H297" s="14"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="10"/>
       <c r="B298" s="11"/>
       <c r="C298" s="11"/>
-      <c r="D298" s="10"/>
-      <c r="E298" s="12"/>
-      <c r="F298" s="13"/>
-      <c r="G298" s="14"/>
+      <c r="D298" s="11"/>
+      <c r="E298" s="10"/>
+      <c r="F298" s="12"/>
+      <c r="G298" s="13"/>
+      <c r="H298" s="14"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="10"/>
       <c r="B299" s="11"/>
       <c r="C299" s="11"/>
-      <c r="D299" s="10"/>
-      <c r="E299" s="12"/>
-      <c r="F299" s="13"/>
-      <c r="G299" s="14"/>
+      <c r="D299" s="11"/>
+      <c r="E299" s="10"/>
+      <c r="F299" s="12"/>
+      <c r="G299" s="13"/>
+      <c r="H299" s="14"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="10"/>
       <c r="B300" s="11"/>
       <c r="C300" s="11"/>
-      <c r="D300" s="10"/>
-      <c r="E300" s="12"/>
-      <c r="F300" s="13"/>
-      <c r="G300" s="14"/>
+      <c r="D300" s="11"/>
+      <c r="E300" s="10"/>
+      <c r="F300" s="12"/>
+      <c r="G300" s="13"/>
+      <c r="H300" s="14"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="10"/>
       <c r="B301" s="11"/>
       <c r="C301" s="11"/>
-      <c r="D301" s="10"/>
-      <c r="E301" s="12"/>
-      <c r="F301" s="13"/>
-      <c r="G301" s="14"/>
+      <c r="D301" s="11"/>
+      <c r="E301" s="10"/>
+      <c r="F301" s="12"/>
+      <c r="G301" s="13"/>
+      <c r="H301" s="14"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="10"/>
       <c r="B302" s="11"/>
       <c r="C302" s="11"/>
-      <c r="D302" s="10"/>
-      <c r="E302" s="12"/>
-      <c r="F302" s="13"/>
-      <c r="G302" s="14"/>
+      <c r="D302" s="11"/>
+      <c r="E302" s="10"/>
+      <c r="F302" s="12"/>
+      <c r="G302" s="13"/>
+      <c r="H302" s="14"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="10"/>
       <c r="B303" s="11"/>
       <c r="C303" s="11"/>
-      <c r="D303" s="10"/>
-      <c r="E303" s="12"/>
-      <c r="F303" s="13"/>
-      <c r="G303" s="14"/>
+      <c r="D303" s="11"/>
+      <c r="E303" s="10"/>
+      <c r="F303" s="12"/>
+      <c r="G303" s="13"/>
+      <c r="H303" s="14"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="10"/>
       <c r="B304" s="11"/>
       <c r="C304" s="11"/>
-      <c r="D304" s="10"/>
-      <c r="E304" s="12"/>
-      <c r="F304" s="13"/>
-      <c r="G304" s="14"/>
+      <c r="D304" s="11"/>
+      <c r="E304" s="10"/>
+      <c r="F304" s="12"/>
+      <c r="G304" s="13"/>
+      <c r="H304" s="14"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="10"/>
       <c r="B305" s="11"/>
       <c r="C305" s="11"/>
-      <c r="D305" s="10"/>
-      <c r="E305" s="12"/>
-      <c r="F305" s="13"/>
-      <c r="G305" s="14"/>
+      <c r="D305" s="11"/>
+      <c r="E305" s="10"/>
+      <c r="F305" s="12"/>
+      <c r="G305" s="13"/>
+      <c r="H305" s="14"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="10"/>
       <c r="B306" s="11"/>
       <c r="C306" s="11"/>
-      <c r="D306" s="10"/>
-      <c r="E306" s="12"/>
-      <c r="F306" s="13"/>
-      <c r="G306" s="14"/>
+      <c r="D306" s="11"/>
+      <c r="E306" s="10"/>
+      <c r="F306" s="12"/>
+      <c r="G306" s="13"/>
+      <c r="H306" s="14"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="10"/>
       <c r="B307" s="11"/>
       <c r="C307" s="11"/>
-      <c r="D307" s="10"/>
-      <c r="E307" s="12"/>
-      <c r="F307" s="13"/>
-      <c r="G307" s="14"/>
+      <c r="D307" s="11"/>
+      <c r="E307" s="10"/>
+      <c r="F307" s="12"/>
+      <c r="G307" s="13"/>
+      <c r="H307" s="14"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="10"/>
       <c r="B308" s="11"/>
       <c r="C308" s="11"/>
-      <c r="D308" s="10"/>
-      <c r="E308" s="12"/>
-      <c r="F308" s="13"/>
-      <c r="G308" s="14"/>
+      <c r="D308" s="11"/>
+      <c r="E308" s="10"/>
+      <c r="F308" s="12"/>
+      <c r="G308" s="13"/>
+      <c r="H308" s="14"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="10"/>
       <c r="B309" s="11"/>
       <c r="C309" s="11"/>
-      <c r="D309" s="10"/>
-      <c r="E309" s="12"/>
-      <c r="F309" s="13"/>
-      <c r="G309" s="14"/>
+      <c r="D309" s="11"/>
+      <c r="E309" s="10"/>
+      <c r="F309" s="12"/>
+      <c r="G309" s="13"/>
+      <c r="H309" s="14"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="10"/>
       <c r="B310" s="11"/>
       <c r="C310" s="11"/>
-      <c r="D310" s="10"/>
-      <c r="E310" s="12"/>
-      <c r="F310" s="13"/>
-      <c r="G310" s="14"/>
+      <c r="D310" s="11"/>
+      <c r="E310" s="10"/>
+      <c r="F310" s="12"/>
+      <c r="G310" s="13"/>
+      <c r="H310" s="14"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="10"/>
       <c r="B311" s="11"/>
       <c r="C311" s="11"/>
-      <c r="D311" s="10"/>
-      <c r="E311" s="12"/>
-      <c r="F311" s="13"/>
-      <c r="G311" s="14"/>
+      <c r="D311" s="11"/>
+      <c r="E311" s="10"/>
+      <c r="F311" s="12"/>
+      <c r="G311" s="13"/>
+      <c r="H311" s="14"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="10"/>
       <c r="B312" s="11"/>
       <c r="C312" s="11"/>
-      <c r="D312" s="10"/>
-      <c r="E312" s="12"/>
-      <c r="F312" s="13"/>
-      <c r="G312" s="14"/>
+      <c r="D312" s="11"/>
+      <c r="E312" s="10"/>
+      <c r="F312" s="12"/>
+      <c r="G312" s="13"/>
+      <c r="H312" s="14"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="10"/>
       <c r="B313" s="11"/>
       <c r="C313" s="11"/>
-      <c r="D313" s="10"/>
-      <c r="E313" s="12"/>
-      <c r="F313" s="13"/>
-      <c r="G313" s="14"/>
+      <c r="D313" s="11"/>
+      <c r="E313" s="10"/>
+      <c r="F313" s="12"/>
+      <c r="G313" s="13"/>
+      <c r="H313" s="14"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="10"/>
       <c r="B314" s="11"/>
       <c r="C314" s="11"/>
-      <c r="D314" s="10"/>
-      <c r="E314" s="12"/>
-      <c r="F314" s="13"/>
-      <c r="G314" s="14"/>
+      <c r="D314" s="11"/>
+      <c r="E314" s="10"/>
+      <c r="F314" s="12"/>
+      <c r="G314" s="13"/>
+      <c r="H314" s="14"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="10"/>
       <c r="B315" s="11"/>
       <c r="C315" s="11"/>
-      <c r="D315" s="10"/>
-      <c r="E315" s="12"/>
-      <c r="F315" s="13"/>
-      <c r="G315" s="14"/>
+      <c r="D315" s="11"/>
+      <c r="E315" s="10"/>
+      <c r="F315" s="12"/>
+      <c r="G315" s="13"/>
+      <c r="H315" s="14"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="10"/>
       <c r="B316" s="11"/>
       <c r="C316" s="11"/>
-      <c r="D316" s="10"/>
-      <c r="E316" s="12"/>
-      <c r="F316" s="13"/>
-      <c r="G316" s="14"/>
+      <c r="D316" s="11"/>
+      <c r="E316" s="10"/>
+      <c r="F316" s="12"/>
+      <c r="G316" s="13"/>
+      <c r="H316" s="14"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="10"/>
       <c r="B317" s="11"/>
       <c r="C317" s="11"/>
-      <c r="D317" s="10"/>
-      <c r="E317" s="12"/>
-      <c r="F317" s="13"/>
-      <c r="G317" s="14"/>
+      <c r="D317" s="11"/>
+      <c r="E317" s="10"/>
+      <c r="F317" s="12"/>
+      <c r="G317" s="13"/>
+      <c r="H317" s="14"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="10"/>
       <c r="B318" s="11"/>
       <c r="C318" s="11"/>
-      <c r="D318" s="10"/>
-      <c r="E318" s="12"/>
-      <c r="F318" s="13"/>
-      <c r="G318" s="14"/>
+      <c r="D318" s="11"/>
+      <c r="E318" s="10"/>
+      <c r="F318" s="12"/>
+      <c r="G318" s="13"/>
+      <c r="H318" s="14"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="10"/>
       <c r="B319" s="11"/>
       <c r="C319" s="11"/>
-      <c r="D319" s="10"/>
-      <c r="E319" s="12"/>
-      <c r="F319" s="13"/>
-      <c r="G319" s="14"/>
+      <c r="D319" s="11"/>
+      <c r="E319" s="10"/>
+      <c r="F319" s="12"/>
+      <c r="G319" s="13"/>
+      <c r="H319" s="14"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="10"/>
       <c r="B320" s="11"/>
       <c r="C320" s="11"/>
-      <c r="D320" s="10"/>
-      <c r="E320" s="12"/>
-      <c r="F320" s="13"/>
-      <c r="G320" s="14"/>
+      <c r="D320" s="11"/>
+      <c r="E320" s="10"/>
+      <c r="F320" s="12"/>
+      <c r="G320" s="13"/>
+      <c r="H320" s="14"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="10"/>
       <c r="B321" s="11"/>
       <c r="C321" s="11"/>
-      <c r="D321" s="10"/>
-      <c r="E321" s="12"/>
-      <c r="F321" s="13"/>
-      <c r="G321" s="14"/>
+      <c r="D321" s="11"/>
+      <c r="E321" s="10"/>
+      <c r="F321" s="12"/>
+      <c r="G321" s="13"/>
+      <c r="H321" s="14"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="10"/>
       <c r="B322" s="11"/>
       <c r="C322" s="11"/>
-      <c r="D322" s="10"/>
-      <c r="E322" s="12"/>
-      <c r="F322" s="13"/>
-      <c r="G322" s="14"/>
+      <c r="D322" s="11"/>
+      <c r="E322" s="10"/>
+      <c r="F322" s="12"/>
+      <c r="G322" s="13"/>
+      <c r="H322" s="14"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="10"/>
       <c r="B323" s="11"/>
       <c r="C323" s="11"/>
-      <c r="D323" s="10"/>
-      <c r="E323" s="12"/>
-      <c r="F323" s="13"/>
-      <c r="G323" s="14"/>
+      <c r="D323" s="11"/>
+      <c r="E323" s="10"/>
+      <c r="F323" s="12"/>
+      <c r="G323" s="13"/>
+      <c r="H323" s="14"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="10"/>
       <c r="B324" s="11"/>
       <c r="C324" s="11"/>
-      <c r="D324" s="10"/>
-      <c r="E324" s="12"/>
-      <c r="F324" s="13"/>
-      <c r="G324" s="14"/>
+      <c r="D324" s="11"/>
+      <c r="E324" s="10"/>
+      <c r="F324" s="12"/>
+      <c r="G324" s="13"/>
+      <c r="H324" s="14"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="10"/>
       <c r="B325" s="11"/>
       <c r="C325" s="11"/>
-      <c r="D325" s="10"/>
-      <c r="E325" s="12"/>
-      <c r="F325" s="13"/>
-      <c r="G325" s="14"/>
+      <c r="D325" s="11"/>
+      <c r="E325" s="10"/>
+      <c r="F325" s="12"/>
+      <c r="G325" s="13"/>
+      <c r="H325" s="14"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="10"/>
       <c r="B326" s="11"/>
       <c r="C326" s="11"/>
-      <c r="D326" s="10"/>
-      <c r="E326" s="12"/>
-      <c r="F326" s="13"/>
-      <c r="G326" s="14"/>
+      <c r="D326" s="11"/>
+      <c r="E326" s="10"/>
+      <c r="F326" s="12"/>
+      <c r="G326" s="13"/>
+      <c r="H326" s="14"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="10"/>
       <c r="B327" s="11"/>
       <c r="C327" s="11"/>
-      <c r="D327" s="10"/>
-      <c r="E327" s="12"/>
-      <c r="F327" s="13"/>
-      <c r="G327" s="14"/>
+      <c r="D327" s="11"/>
+      <c r="E327" s="10"/>
+      <c r="F327" s="12"/>
+      <c r="G327" s="13"/>
+      <c r="H327" s="14"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="10"/>
       <c r="B328" s="11"/>
       <c r="C328" s="11"/>
-      <c r="D328" s="10"/>
-      <c r="E328" s="12"/>
-      <c r="F328" s="13"/>
-      <c r="G328" s="14"/>
+      <c r="D328" s="11"/>
+      <c r="E328" s="10"/>
+      <c r="F328" s="12"/>
+      <c r="G328" s="13"/>
+      <c r="H328" s="14"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="10"/>
       <c r="B329" s="11"/>
       <c r="C329" s="11"/>
-      <c r="D329" s="10"/>
-      <c r="E329" s="12"/>
-      <c r="F329" s="13"/>
-      <c r="G329" s="14"/>
+      <c r="D329" s="11"/>
+      <c r="E329" s="10"/>
+      <c r="F329" s="12"/>
+      <c r="G329" s="13"/>
+      <c r="H329" s="14"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="10"/>
       <c r="B330" s="11"/>
       <c r="C330" s="11"/>
-      <c r="D330" s="10"/>
-      <c r="E330" s="12"/>
-      <c r="F330" s="13"/>
-      <c r="G330" s="14"/>
+      <c r="D330" s="11"/>
+      <c r="E330" s="10"/>
+      <c r="F330" s="12"/>
+      <c r="G330" s="13"/>
+      <c r="H330" s="14"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="10"/>
       <c r="B331" s="11"/>
       <c r="C331" s="11"/>
-      <c r="D331" s="10"/>
-      <c r="E331" s="12"/>
-      <c r="F331" s="13"/>
-      <c r="G331" s="14"/>
+      <c r="D331" s="11"/>
+      <c r="E331" s="10"/>
+      <c r="F331" s="12"/>
+      <c r="G331" s="13"/>
+      <c r="H331" s="14"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="10"/>
       <c r="B332" s="11"/>
       <c r="C332" s="11"/>
-      <c r="D332" s="10"/>
-      <c r="E332" s="12"/>
-      <c r="F332" s="13"/>
-      <c r="G332" s="14"/>
+      <c r="D332" s="11"/>
+      <c r="E332" s="10"/>
+      <c r="F332" s="12"/>
+      <c r="G332" s="13"/>
+      <c r="H332" s="14"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="10"/>
       <c r="B333" s="11"/>
       <c r="C333" s="11"/>
-      <c r="D333" s="10"/>
-      <c r="E333" s="12"/>
-      <c r="F333" s="13"/>
-      <c r="G333" s="14"/>
+      <c r="D333" s="11"/>
+      <c r="E333" s="10"/>
+      <c r="F333" s="12"/>
+      <c r="G333" s="13"/>
+      <c r="H333" s="14"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="10"/>
       <c r="B334" s="11"/>
       <c r="C334" s="11"/>
-      <c r="D334" s="10"/>
-      <c r="E334" s="12"/>
-      <c r="F334" s="13"/>
-      <c r="G334" s="14"/>
+      <c r="D334" s="11"/>
+      <c r="E334" s="10"/>
+      <c r="F334" s="12"/>
+      <c r="G334" s="13"/>
+      <c r="H334" s="14"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="10"/>
       <c r="B335" s="11"/>
       <c r="C335" s="11"/>
-      <c r="D335" s="10"/>
-      <c r="E335" s="12"/>
-      <c r="F335" s="13"/>
-      <c r="G335" s="14"/>
+      <c r="D335" s="11"/>
+      <c r="E335" s="10"/>
+      <c r="F335" s="12"/>
+      <c r="G335" s="13"/>
+      <c r="H335" s="14"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="10"/>
       <c r="B336" s="11"/>
       <c r="C336" s="11"/>
-      <c r="D336" s="10"/>
-      <c r="E336" s="12"/>
-      <c r="F336" s="13"/>
-      <c r="G336" s="14"/>
+      <c r="D336" s="11"/>
+      <c r="E336" s="10"/>
+      <c r="F336" s="12"/>
+      <c r="G336" s="13"/>
+      <c r="H336" s="14"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="10"/>
       <c r="B337" s="11"/>
       <c r="C337" s="11"/>
-      <c r="D337" s="10"/>
-      <c r="E337" s="12"/>
-      <c r="F337" s="13"/>
-      <c r="G337" s="14"/>
+      <c r="D337" s="11"/>
+      <c r="E337" s="10"/>
+      <c r="F337" s="12"/>
+      <c r="G337" s="13"/>
+      <c r="H337" s="14"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="10"/>
       <c r="B338" s="11"/>
       <c r="C338" s="11"/>
-      <c r="D338" s="10"/>
-      <c r="E338" s="12"/>
-      <c r="F338" s="13"/>
-      <c r="G338" s="14"/>
+      <c r="D338" s="11"/>
+      <c r="E338" s="10"/>
+      <c r="F338" s="12"/>
+      <c r="G338" s="13"/>
+      <c r="H338" s="14"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="10"/>
       <c r="B339" s="11"/>
       <c r="C339" s="11"/>
-      <c r="D339" s="10"/>
-      <c r="E339" s="12"/>
-      <c r="F339" s="13"/>
-      <c r="G339" s="14"/>
+      <c r="D339" s="11"/>
+      <c r="E339" s="10"/>
+      <c r="F339" s="12"/>
+      <c r="G339" s="13"/>
+      <c r="H339" s="14"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="10"/>
       <c r="B340" s="11"/>
       <c r="C340" s="11"/>
-      <c r="D340" s="10"/>
-      <c r="E340" s="12"/>
-      <c r="F340" s="13"/>
-      <c r="G340" s="14"/>
+      <c r="D340" s="11"/>
+      <c r="E340" s="10"/>
+      <c r="F340" s="12"/>
+      <c r="G340" s="13"/>
+      <c r="H340" s="14"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="10"/>
       <c r="B341" s="11"/>
       <c r="C341" s="11"/>
-      <c r="D341" s="10"/>
-      <c r="E341" s="12"/>
-      <c r="F341" s="13"/>
-      <c r="G341" s="14"/>
+      <c r="D341" s="11"/>
+      <c r="E341" s="10"/>
+      <c r="F341" s="12"/>
+      <c r="G341" s="13"/>
+      <c r="H341" s="14"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="10"/>
       <c r="B342" s="11"/>
       <c r="C342" s="11"/>
-      <c r="D342" s="10"/>
-      <c r="E342" s="12"/>
-      <c r="F342" s="13"/>
-      <c r="G342" s="14"/>
+      <c r="D342" s="11"/>
+      <c r="E342" s="10"/>
+      <c r="F342" s="12"/>
+      <c r="G342" s="13"/>
+      <c r="H342" s="14"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="10"/>
       <c r="B343" s="11"/>
       <c r="C343" s="11"/>
-      <c r="D343" s="10"/>
-      <c r="E343" s="12"/>
-      <c r="F343" s="13"/>
-      <c r="G343" s="14"/>
+      <c r="D343" s="11"/>
+      <c r="E343" s="10"/>
+      <c r="F343" s="12"/>
+      <c r="G343" s="13"/>
+      <c r="H343" s="14"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="10"/>
       <c r="B344" s="11"/>
       <c r="C344" s="11"/>
-      <c r="D344" s="10"/>
-      <c r="E344" s="12"/>
-      <c r="F344" s="13"/>
-      <c r="G344" s="14"/>
+      <c r="D344" s="11"/>
+      <c r="E344" s="10"/>
+      <c r="F344" s="12"/>
+      <c r="G344" s="13"/>
+      <c r="H344" s="14"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="10"/>
       <c r="B345" s="11"/>
       <c r="C345" s="11"/>
-      <c r="D345" s="10"/>
-      <c r="E345" s="12"/>
-      <c r="F345" s="13"/>
-      <c r="G345" s="14"/>
+      <c r="D345" s="11"/>
+      <c r="E345" s="10"/>
+      <c r="F345" s="12"/>
+      <c r="G345" s="13"/>
+      <c r="H345" s="14"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="10"/>
       <c r="B346" s="11"/>
       <c r="C346" s="11"/>
-      <c r="D346" s="10"/>
-      <c r="E346" s="12"/>
-      <c r="F346" s="13"/>
-      <c r="G346" s="14"/>
+      <c r="D346" s="11"/>
+      <c r="E346" s="10"/>
+      <c r="F346" s="12"/>
+      <c r="G346" s="13"/>
+      <c r="H346" s="14"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="10"/>
       <c r="B347" s="11"/>
       <c r="C347" s="11"/>
-      <c r="D347" s="10"/>
-      <c r="E347" s="12"/>
-      <c r="F347" s="13"/>
-      <c r="G347" s="14"/>
+      <c r="D347" s="11"/>
+      <c r="E347" s="10"/>
+      <c r="F347" s="12"/>
+      <c r="G347" s="13"/>
+      <c r="H347" s="14"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="10"/>
       <c r="B348" s="11"/>
       <c r="C348" s="11"/>
-      <c r="D348" s="10"/>
-      <c r="E348" s="12"/>
-      <c r="F348" s="13"/>
-      <c r="G348" s="14"/>
+      <c r="D348" s="11"/>
+      <c r="E348" s="10"/>
+      <c r="F348" s="12"/>
+      <c r="G348" s="13"/>
+      <c r="H348" s="14"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="10"/>
       <c r="B349" s="11"/>
       <c r="C349" s="11"/>
-      <c r="D349" s="10"/>
-      <c r="E349" s="12"/>
-      <c r="F349" s="13"/>
-      <c r="G349" s="14"/>
+      <c r="D349" s="11"/>
+      <c r="E349" s="10"/>
+      <c r="F349" s="12"/>
+      <c r="G349" s="13"/>
+      <c r="H349" s="14"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="10"/>
       <c r="B350" s="11"/>
       <c r="C350" s="11"/>
-      <c r="D350" s="10"/>
-      <c r="E350" s="12"/>
-      <c r="F350" s="13"/>
-      <c r="G350" s="14"/>
+      <c r="D350" s="11"/>
+      <c r="E350" s="10"/>
+      <c r="F350" s="12"/>
+      <c r="G350" s="13"/>
+      <c r="H350" s="14"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="10"/>
       <c r="B351" s="11"/>
       <c r="C351" s="11"/>
-      <c r="D351" s="10"/>
-      <c r="E351" s="12"/>
-      <c r="F351" s="13"/>
-      <c r="G351" s="14"/>
+      <c r="D351" s="11"/>
+      <c r="E351" s="10"/>
+      <c r="F351" s="12"/>
+      <c r="G351" s="13"/>
+      <c r="H351" s="14"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="10"/>
       <c r="B352" s="11"/>
       <c r="C352" s="11"/>
-      <c r="D352" s="10"/>
-      <c r="E352" s="12"/>
-      <c r="F352" s="13"/>
-      <c r="G352" s="14"/>
+      <c r="D352" s="11"/>
+      <c r="E352" s="10"/>
+      <c r="F352" s="12"/>
+      <c r="G352" s="13"/>
+      <c r="H352" s="14"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="10"/>
       <c r="B353" s="11"/>
       <c r="C353" s="11"/>
-      <c r="D353" s="10"/>
-      <c r="E353" s="12"/>
-      <c r="F353" s="13"/>
-      <c r="G353" s="14"/>
+      <c r="D353" s="11"/>
+      <c r="E353" s="10"/>
+      <c r="F353" s="12"/>
+      <c r="G353" s="13"/>
+      <c r="H353" s="14"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="10"/>
       <c r="B354" s="11"/>
       <c r="C354" s="11"/>
-      <c r="D354" s="10"/>
-      <c r="E354" s="12"/>
-      <c r="F354" s="13"/>
-      <c r="G354" s="14"/>
+      <c r="D354" s="11"/>
+      <c r="E354" s="10"/>
+      <c r="F354" s="12"/>
+      <c r="G354" s="13"/>
+      <c r="H354" s="14"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="10"/>
       <c r="B355" s="11"/>
       <c r="C355" s="11"/>
-      <c r="D355" s="10"/>
-      <c r="E355" s="12"/>
-      <c r="F355" s="13"/>
-      <c r="G355" s="14"/>
+      <c r="D355" s="11"/>
+      <c r="E355" s="10"/>
+      <c r="F355" s="12"/>
+      <c r="G355" s="13"/>
+      <c r="H355" s="14"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="10"/>
       <c r="B356" s="11"/>
       <c r="C356" s="11"/>
-      <c r="D356" s="10"/>
-      <c r="E356" s="12"/>
-      <c r="F356" s="13"/>
-      <c r="G356" s="14"/>
+      <c r="D356" s="11"/>
+      <c r="E356" s="10"/>
+      <c r="F356" s="12"/>
+      <c r="G356" s="13"/>
+      <c r="H356" s="14"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="10"/>
       <c r="B357" s="11"/>
       <c r="C357" s="11"/>
-      <c r="D357" s="10"/>
-      <c r="E357" s="12"/>
-      <c r="F357" s="13"/>
-      <c r="G357" s="14"/>
+      <c r="D357" s="11"/>
+      <c r="E357" s="10"/>
+      <c r="F357" s="12"/>
+      <c r="G357" s="13"/>
+      <c r="H357" s="14"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="10"/>
       <c r="B358" s="11"/>
       <c r="C358" s="11"/>
-      <c r="D358" s="10"/>
-      <c r="E358" s="12"/>
-      <c r="F358" s="13"/>
-      <c r="G358" s="14"/>
+      <c r="D358" s="11"/>
+      <c r="E358" s="10"/>
+      <c r="F358" s="12"/>
+      <c r="G358" s="13"/>
+      <c r="H358" s="14"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="10"/>
       <c r="B359" s="11"/>
       <c r="C359" s="11"/>
-      <c r="D359" s="10"/>
-      <c r="E359" s="12"/>
-      <c r="F359" s="13"/>
-      <c r="G359" s="14"/>
+      <c r="D359" s="11"/>
+      <c r="E359" s="10"/>
+      <c r="F359" s="12"/>
+      <c r="G359" s="13"/>
+      <c r="H359" s="14"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="10"/>
       <c r="B360" s="11"/>
       <c r="C360" s="11"/>
-      <c r="D360" s="10"/>
-      <c r="E360" s="12"/>
-      <c r="F360" s="13"/>
-      <c r="G360" s="14"/>
+      <c r="D360" s="11"/>
+      <c r="E360" s="10"/>
+      <c r="F360" s="12"/>
+      <c r="G360" s="13"/>
+      <c r="H360" s="14"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="10"/>
       <c r="B361" s="11"/>
       <c r="C361" s="11"/>
-      <c r="D361" s="10"/>
-      <c r="E361" s="12"/>
-      <c r="F361" s="13"/>
-      <c r="G361" s="14"/>
+      <c r="D361" s="11"/>
+      <c r="E361" s="10"/>
+      <c r="F361" s="12"/>
+      <c r="G361" s="13"/>
+      <c r="H361" s="14"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="10"/>
       <c r="B362" s="11"/>
       <c r="C362" s="11"/>
-      <c r="D362" s="10"/>
-      <c r="E362" s="12"/>
-      <c r="F362" s="13"/>
-      <c r="G362" s="14"/>
+      <c r="D362" s="11"/>
+      <c r="E362" s="10"/>
+      <c r="F362" s="12"/>
+      <c r="G362" s="13"/>
+      <c r="H362" s="14"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="10"/>
       <c r="B363" s="11"/>
       <c r="C363" s="11"/>
-      <c r="D363" s="10"/>
-      <c r="E363" s="12"/>
-      <c r="F363" s="13"/>
-      <c r="G363" s="14"/>
+      <c r="D363" s="11"/>
+      <c r="E363" s="10"/>
+      <c r="F363" s="12"/>
+      <c r="G363" s="13"/>
+      <c r="H363" s="14"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="10"/>
       <c r="B364" s="11"/>
       <c r="C364" s="11"/>
-      <c r="D364" s="10"/>
-      <c r="E364" s="12"/>
-      <c r="F364" s="13"/>
-      <c r="G364" s="14"/>
+      <c r="D364" s="11"/>
+      <c r="E364" s="10"/>
+      <c r="F364" s="12"/>
+      <c r="G364" s="13"/>
+      <c r="H364" s="14"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="10"/>
       <c r="B365" s="11"/>
       <c r="C365" s="11"/>
-      <c r="D365" s="10"/>
-      <c r="E365" s="12"/>
-      <c r="F365" s="13"/>
-      <c r="G365" s="14"/>
+      <c r="D365" s="11"/>
+      <c r="E365" s="10"/>
+      <c r="F365" s="12"/>
+      <c r="G365" s="13"/>
+      <c r="H365" s="14"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="10"/>
       <c r="B366" s="11"/>
       <c r="C366" s="11"/>
-      <c r="D366" s="10"/>
-      <c r="E366" s="12"/>
-      <c r="F366" s="13"/>
-      <c r="G366" s="14"/>
+      <c r="D366" s="11"/>
+      <c r="E366" s="10"/>
+      <c r="F366" s="12"/>
+      <c r="G366" s="13"/>
+      <c r="H366" s="14"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="10"/>
       <c r="B367" s="11"/>
       <c r="C367" s="11"/>
-      <c r="D367" s="10"/>
-      <c r="E367" s="12"/>
-      <c r="F367" s="13"/>
-      <c r="G367" s="14"/>
+      <c r="D367" s="11"/>
+      <c r="E367" s="10"/>
+      <c r="F367" s="12"/>
+      <c r="G367" s="13"/>
+      <c r="H367" s="14"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="10"/>
       <c r="B368" s="11"/>
       <c r="C368" s="11"/>
-      <c r="D368" s="10"/>
-      <c r="E368" s="12"/>
-      <c r="F368" s="13"/>
-      <c r="G368" s="14"/>
+      <c r="D368" s="11"/>
+      <c r="E368" s="10"/>
+      <c r="F368" s="12"/>
+      <c r="G368" s="13"/>
+      <c r="H368" s="14"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="10"/>
       <c r="B369" s="11"/>
       <c r="C369" s="11"/>
-      <c r="D369" s="10"/>
-      <c r="E369" s="12"/>
-      <c r="F369" s="13"/>
-      <c r="G369" s="14"/>
+      <c r="D369" s="11"/>
+      <c r="E369" s="10"/>
+      <c r="F369" s="12"/>
+      <c r="G369" s="13"/>
+      <c r="H369" s="14"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="10"/>
       <c r="B370" s="11"/>
       <c r="C370" s="11"/>
-      <c r="D370" s="10"/>
-      <c r="E370" s="12"/>
-      <c r="F370" s="13"/>
-      <c r="G370" s="14"/>
+      <c r="D370" s="11"/>
+      <c r="E370" s="10"/>
+      <c r="F370" s="12"/>
+      <c r="G370" s="13"/>
+      <c r="H370" s="14"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="10"/>
       <c r="B371" s="11"/>
       <c r="C371" s="11"/>
-      <c r="D371" s="10"/>
-      <c r="E371" s="12"/>
-      <c r="F371" s="13"/>
-      <c r="G371" s="14"/>
+      <c r="D371" s="11"/>
+      <c r="E371" s="10"/>
+      <c r="F371" s="12"/>
+      <c r="G371" s="13"/>
+      <c r="H371" s="14"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="10"/>
       <c r="B372" s="11"/>
       <c r="C372" s="11"/>
-      <c r="D372" s="10"/>
-      <c r="E372" s="12"/>
-      <c r="F372" s="13"/>
-      <c r="G372" s="14"/>
+      <c r="D372" s="11"/>
+      <c r="E372" s="10"/>
+      <c r="F372" s="12"/>
+      <c r="G372" s="13"/>
+      <c r="H372" s="14"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="10"/>
       <c r="B373" s="11"/>
       <c r="C373" s="11"/>
-      <c r="D373" s="10"/>
-      <c r="E373" s="12"/>
-      <c r="F373" s="13"/>
-      <c r="G373" s="14"/>
+      <c r="D373" s="11"/>
+      <c r="E373" s="10"/>
+      <c r="F373" s="12"/>
+      <c r="G373" s="13"/>
+      <c r="H373" s="14"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="10"/>
       <c r="B374" s="11"/>
       <c r="C374" s="11"/>
-      <c r="D374" s="10"/>
-      <c r="E374" s="12"/>
-      <c r="F374" s="13"/>
-      <c r="G374" s="14"/>
+      <c r="D374" s="11"/>
+      <c r="E374" s="10"/>
+      <c r="F374" s="12"/>
+      <c r="G374" s="13"/>
+      <c r="H374" s="14"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="10"/>
       <c r="B375" s="11"/>
       <c r="C375" s="11"/>
-      <c r="D375" s="10"/>
-      <c r="E375" s="12"/>
-      <c r="F375" s="13"/>
-      <c r="G375" s="14"/>
+      <c r="D375" s="11"/>
+      <c r="E375" s="10"/>
+      <c r="F375" s="12"/>
+      <c r="G375" s="13"/>
+      <c r="H375" s="14"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="10"/>
       <c r="B376" s="11"/>
       <c r="C376" s="11"/>
-      <c r="D376" s="10"/>
-      <c r="E376" s="12"/>
-      <c r="F376" s="13"/>
-      <c r="G376" s="14"/>
+      <c r="D376" s="11"/>
+      <c r="E376" s="10"/>
+      <c r="F376" s="12"/>
+      <c r="G376" s="13"/>
+      <c r="H376" s="14"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="10"/>
       <c r="B377" s="11"/>
       <c r="C377" s="11"/>
-      <c r="D377" s="10"/>
-      <c r="E377" s="12"/>
-      <c r="F377" s="13"/>
-      <c r="G377" s="14"/>
+      <c r="D377" s="11"/>
+      <c r="E377" s="10"/>
+      <c r="F377" s="12"/>
+      <c r="G377" s="13"/>
+      <c r="H377" s="14"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="10"/>
       <c r="B378" s="11"/>
       <c r="C378" s="11"/>
-      <c r="D378" s="10"/>
-      <c r="E378" s="12"/>
-      <c r="F378" s="13"/>
-      <c r="G378" s="14"/>
+      <c r="D378" s="11"/>
+      <c r="E378" s="10"/>
+      <c r="F378" s="12"/>
+      <c r="G378" s="13"/>
+      <c r="H378" s="14"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="10"/>
       <c r="B379" s="11"/>
       <c r="C379" s="11"/>
-      <c r="D379" s="10"/>
-      <c r="E379" s="12"/>
-      <c r="F379" s="13"/>
-      <c r="G379" s="14"/>
+      <c r="D379" s="11"/>
+      <c r="E379" s="10"/>
+      <c r="F379" s="12"/>
+      <c r="G379" s="13"/>
+      <c r="H379" s="14"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="10"/>
       <c r="B380" s="11"/>
       <c r="C380" s="11"/>
-      <c r="D380" s="10"/>
-      <c r="E380" s="12"/>
-      <c r="F380" s="13"/>
-      <c r="G380" s="14"/>
+      <c r="D380" s="11"/>
+      <c r="E380" s="10"/>
+      <c r="F380" s="12"/>
+      <c r="G380" s="13"/>
+      <c r="H380" s="14"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="10"/>
       <c r="B381" s="11"/>
       <c r="C381" s="11"/>
-      <c r="D381" s="10"/>
-      <c r="E381" s="12"/>
-      <c r="F381" s="13"/>
-      <c r="G381" s="14"/>
+      <c r="D381" s="11"/>
+      <c r="E381" s="10"/>
+      <c r="F381" s="12"/>
+      <c r="G381" s="13"/>
+      <c r="H381" s="14"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="10"/>
       <c r="B382" s="11"/>
       <c r="C382" s="11"/>
-      <c r="D382" s="10"/>
-      <c r="E382" s="12"/>
-      <c r="F382" s="13"/>
-      <c r="G382" s="14"/>
+      <c r="D382" s="11"/>
+      <c r="E382" s="10"/>
+      <c r="F382" s="12"/>
+      <c r="G382" s="13"/>
+      <c r="H382" s="14"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="10"/>
       <c r="B383" s="11"/>
       <c r="C383" s="11"/>
-      <c r="D383" s="10"/>
-      <c r="E383" s="12"/>
-      <c r="F383" s="13"/>
-      <c r="G383" s="14"/>
+      <c r="D383" s="11"/>
+      <c r="E383" s="10"/>
+      <c r="F383" s="12"/>
+      <c r="G383" s="13"/>
+      <c r="H383" s="14"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="10"/>
       <c r="B384" s="11"/>
       <c r="C384" s="11"/>
-      <c r="D384" s="10"/>
-      <c r="E384" s="12"/>
-      <c r="F384" s="13"/>
-      <c r="G384" s="14"/>
+      <c r="D384" s="11"/>
+      <c r="E384" s="10"/>
+      <c r="F384" s="12"/>
+      <c r="G384" s="13"/>
+      <c r="H384" s="14"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="10"/>
       <c r="B385" s="11"/>
       <c r="C385" s="11"/>
-      <c r="D385" s="10"/>
-      <c r="E385" s="12"/>
-      <c r="F385" s="13"/>
-      <c r="G385" s="14"/>
+      <c r="D385" s="11"/>
+      <c r="E385" s="10"/>
+      <c r="F385" s="12"/>
+      <c r="G385" s="13"/>
+      <c r="H385" s="14"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="10"/>
       <c r="B386" s="11"/>
       <c r="C386" s="11"/>
-      <c r="D386" s="10"/>
-      <c r="E386" s="12"/>
-      <c r="F386" s="13"/>
-      <c r="G386" s="14"/>
+      <c r="D386" s="11"/>
+      <c r="E386" s="10"/>
+      <c r="F386" s="12"/>
+      <c r="G386" s="13"/>
+      <c r="H386" s="14"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="10"/>
       <c r="B387" s="11"/>
       <c r="C387" s="11"/>
-      <c r="D387" s="10"/>
-      <c r="E387" s="12"/>
-      <c r="F387" s="13"/>
-      <c r="G387" s="14"/>
+      <c r="D387" s="11"/>
+      <c r="E387" s="10"/>
+      <c r="F387" s="12"/>
+      <c r="G387" s="13"/>
+      <c r="H387" s="14"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="10"/>
       <c r="B388" s="11"/>
       <c r="C388" s="11"/>
-      <c r="D388" s="10"/>
-      <c r="E388" s="12"/>
-      <c r="F388" s="13"/>
-      <c r="G388" s="14"/>
+      <c r="D388" s="11"/>
+      <c r="E388" s="10"/>
+      <c r="F388" s="12"/>
+      <c r="G388" s="13"/>
+      <c r="H388" s="14"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="15"/>
       <c r="B389" s="16"/>
       <c r="C389" s="16"/>
-      <c r="D389" s="15"/>
-      <c r="E389" s="17"/>
-      <c r="F389" s="18"/>
-      <c r="G389" s="19"/>
+      <c r="D389" s="16"/>
+      <c r="E389" s="15"/>
+      <c r="F389" s="17"/>
+      <c r="G389" s="18"/>
+      <c r="H389" s="19"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5871,11 +6267,11 @@
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:G389" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6:H389" type="list">
       <formula1>Index!$E$2:$E$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C389" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:D389" type="list">
       <formula1>Index!$A$2:$A$97</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5901,52 +6297,52 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -5963,7 +6359,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -5980,7 +6376,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -5997,7 +6393,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -6014,7 +6410,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -6031,7 +6427,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -6048,7 +6444,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -6065,7 +6461,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -6103,14 +6499,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6160,7 +6556,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6233,7 +6629,7 @@
     </row>
     <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -6283,7 +6679,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="3"/>
@@ -6311,7 +6707,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="3"/>
@@ -6339,7 +6735,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="3"/>
@@ -6362,12 +6758,12 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="3"/>
@@ -6390,12 +6786,12 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="3"/>
@@ -6418,12 +6814,12 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="3"/>
@@ -6451,9 +6847,9 @@
         <v>10</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="C14" s="29"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -6474,9 +6870,24 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -6488,6 +6899,8 @@
       <c r="V15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -6631,17 +7044,6 @@
       <c r="V28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -6653,8 +7055,6 @@
       <c r="V29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -7063,8 +7463,31 @@
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-    </row>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+    </row>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7096,7 +7519,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.47"/>
@@ -7108,2536 +7531,2536 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B27" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="31" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="31" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="31" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="31" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="31" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B53" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="B56" s="31" t="s">
-        <v>147</v>
-      </c>
       <c r="C56" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="31" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="31" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="31" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="31" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="31" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="31" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="31" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C98" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C99" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C100" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C101" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C102" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C103" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C104" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C105" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C106" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C107" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C108" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C109" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C110" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C111" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C112" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C113" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C114" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C115" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C116" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C117" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C118" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C119" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C120" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C121" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C122" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C123" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C124" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C125" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C126" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C127" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C128" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C129" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C130" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C131" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C132" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C133" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C134" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C135" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C136" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C137" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C138" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C139" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C140" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C141" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C142" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C143" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C144" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C145" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C146" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C147" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C148" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C149" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C150" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C151" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C152" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C153" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C154" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C155" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C156" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C157" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C158" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C159" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C160" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C161" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C162" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C163" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C164" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C165" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C166" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C167" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C168" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C169" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C170" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C171" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C172" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C173" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C174" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C175" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C176" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C177" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C178" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C179" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C180" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C181" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C182" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C183" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C184" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C185" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C186" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C187" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C188" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C189" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C190" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C191" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C192" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C193" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C194" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C195" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C196" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C197" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C198" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C199" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C200" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C201" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C202" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C203" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C204" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C205" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C206" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C207" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C208" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C209" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C210" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C211" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C212" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C213" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C214" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C215" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C216" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C217" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C218" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C219" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C220" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C221" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C222" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C223" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C224" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C225" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C226" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C227" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C228" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C229" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C230" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C231" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C232" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C233" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C234" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C235" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C236" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C237" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C238" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C239" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C240" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C241" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C242" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C243" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C244" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C245" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C246" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C247" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C248" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C249" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C250" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C251" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C252" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C253" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C254" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C255" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C256" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C257" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C258" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C259" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C260" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C261" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C262" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C263" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C264" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C265" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C266" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C267" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C268" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C269" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C270" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C271" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C272" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C273" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C274" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C275" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C276" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C277" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C278" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C279" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C280" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C281" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C282" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C283" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C284" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C285" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C286" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C287" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C288" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C289" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C290" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C291" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C292" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C293" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C294" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C295" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C296" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C297" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C298" s="3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C299" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C300" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C301" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C302" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C303" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C304" s="3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C305" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C306" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C307" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C308" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C309" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C310" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C311" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C312" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C313" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C314" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C315" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C316" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C317" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C318" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C319" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C320" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C321" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C322" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C323" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C324" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C325" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C326" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C327" s="3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C328" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C329" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C330" s="3" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C331" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C332" s="3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C333" s="3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C334" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C335" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C336" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C337" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C338" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C339" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C340" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C341" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C342" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C343" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C344" s="3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C345" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C346" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C347" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C348" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C349" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C350" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C351" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C352" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C353" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C354" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C355" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C356" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C357" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C358" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C359" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C360" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C361" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C362" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C363" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C364" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C365" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C366" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C367" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C368" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C369" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C370" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C371" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C372" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C373" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C374" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C375" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C376" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C377" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C378" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C379" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C380" s="3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C381" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C382" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C383" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C384" s="3" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C385" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/backend/fms_core/static/submission_templates/Sample_identity_QC_v5_1_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Sample_identity_QC_v5_1_0.xlsx
@@ -93,40 +93,40 @@
     <t xml:space="preserve">Coord</t>
   </si>
   <si>
-    <t xml:space="preserve">01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
+    <t xml:space="preserve">col 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col 12</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -1842,7 +1842,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.21"/>
@@ -6297,7 +6297,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
@@ -6499,7 +6499,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.33"/>
   </cols>
@@ -7519,7 +7519,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.47"/>

--- a/backend/fms_core/static/submission_templates/Sample_identity_QC_v5_1_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Sample_identity_QC_v5_1_0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="437">
   <si>
     <t xml:space="preserve">Sample Identity QC Template</t>
   </si>
@@ -93,40 +93,40 @@
     <t xml:space="preserve">Coord</t>
   </si>
   <si>
-    <t xml:space="preserve">col 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col 12</t>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -1628,7 +1628,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1709,6 +1709,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1717,11 +1725,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1842,7 +1846,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.50390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.21"/>
@@ -6291,192 +6295,233 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1048576"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="1" style="20" width="10.42"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="A1" s="0"/>
       <c r="B1" s="21" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+        <v>12</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
+        <v>25</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
+        <v>26</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
+        <v>27</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
+        <v>28</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
+        <v>29</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
+        <v>30</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -6499,7 +6544,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.33"/>
   </cols>
@@ -6628,7 +6673,7 @@
       <c r="V5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="3"/>
@@ -6652,8 +6697,8 @@
       <c r="V6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -6675,13 +6720,13 @@
       <c r="V7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -6703,13 +6748,13 @@
       <c r="V8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="29"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -6731,13 +6776,13 @@
       <c r="V9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="29"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -6759,13 +6804,13 @@
       <c r="V10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -6787,13 +6832,13 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6815,13 +6860,13 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="29"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6843,13 +6888,13 @@
       <c r="V13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -6871,10 +6916,10 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="29" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="3"/>
@@ -7519,7 +7564,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.50390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.47"/>
@@ -7530,10 +7575,10 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -7548,10 +7593,10 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -7566,10 +7611,10 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -7582,10 +7627,10 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -7597,10 +7642,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -7612,10 +7657,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="32" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -7623,10 +7668,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="32" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -7634,10 +7679,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -7645,10 +7690,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="32" t="s">
         <v>67</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -7656,10 +7701,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="32" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -7667,10 +7712,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="32" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -7678,10 +7723,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="32" t="s">
         <v>72</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -7689,10 +7734,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="32" t="s">
         <v>74</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -7700,10 +7745,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -7711,10 +7756,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="32" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -7722,10 +7767,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="32" t="s">
         <v>80</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -7733,10 +7778,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="32" t="s">
         <v>83</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -7744,10 +7789,10 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="32" t="s">
         <v>85</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -7755,10 +7800,10 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="32" t="s">
         <v>87</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -7766,10 +7811,10 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="32" t="s">
         <v>90</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -7777,10 +7822,10 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="32" t="s">
         <v>93</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -7788,10 +7833,10 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="32" t="s">
         <v>96</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -7799,10 +7844,10 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="32" t="s">
         <v>99</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -7810,10 +7855,10 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="32" t="s">
         <v>102</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -7821,10 +7866,10 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="32" t="s">
         <v>105</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -7832,10 +7877,10 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="32" t="s">
         <v>54</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -7843,10 +7888,10 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="32" t="s">
         <v>71</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -7854,10 +7899,10 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="32" t="s">
         <v>89</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -7865,10 +7910,10 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="32" t="s">
         <v>107</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -7876,10 +7921,10 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="32" t="s">
         <v>110</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -7887,10 +7932,10 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="32" t="s">
         <v>112</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -7898,10 +7943,10 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="32" t="s">
         <v>114</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -7909,10 +7954,10 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -7920,10 +7965,10 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="32" t="s">
         <v>117</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -7931,10 +7976,10 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -7942,10 +7987,10 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="32" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -7953,10 +7998,10 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -7964,10 +8009,10 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="32" t="s">
         <v>57</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -7975,10 +8020,10 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="32" t="s">
         <v>73</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -7986,10 +8031,10 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="32" t="s">
         <v>92</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -7997,10 +8042,10 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="32" t="s">
         <v>108</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -8008,10 +8053,10 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="32" t="s">
         <v>120</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -8019,10 +8064,10 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="32" t="s">
         <v>131</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -8030,10 +8075,10 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="32" t="s">
         <v>133</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -8041,10 +8086,10 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="32" t="s">
         <v>135</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -8052,10 +8097,10 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="32" t="s">
         <v>138</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -8063,10 +8108,10 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="32" t="s">
         <v>141</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -8074,10 +8119,10 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="32" t="s">
         <v>144</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -8085,10 +8130,10 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="32" t="s">
         <v>147</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -8096,10 +8141,10 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="32" t="s">
         <v>60</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -8107,10 +8152,10 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="32" t="s">
         <v>75</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -8118,10 +8163,10 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="32" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -8129,10 +8174,10 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="32" t="s">
         <v>109</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -8140,10 +8185,10 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="32" t="s">
         <v>122</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -8151,10 +8196,10 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="32" t="s">
         <v>137</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -8162,10 +8207,10 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="32" t="s">
         <v>149</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -8173,10 +8218,10 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="32" t="s">
         <v>153</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -8184,10 +8229,10 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -8195,10 +8240,10 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="32" t="s">
         <v>155</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -8206,10 +8251,10 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="32" t="s">
         <v>156</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -8217,10 +8262,10 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="32" t="s">
         <v>157</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -8228,10 +8273,10 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="32" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -8239,10 +8284,10 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="32" t="s">
         <v>77</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -8250,10 +8295,10 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="32" t="s">
         <v>98</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -8261,10 +8306,10 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="32" t="s">
         <v>111</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -8272,10 +8317,10 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="32" t="s">
         <v>124</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -8283,10 +8328,10 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="32" t="s">
         <v>140</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -8294,10 +8339,10 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="32" t="s">
         <v>150</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -8305,10 +8350,10 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="32" t="s">
         <v>159</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -8316,10 +8361,10 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="32" t="s">
         <v>169</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -8327,10 +8372,10 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="32" t="s">
         <v>171</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -8338,10 +8383,10 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="32" t="s">
         <v>174</v>
       </c>
       <c r="C72" s="3" t="s">
@@ -8349,10 +8394,10 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="32" t="s">
         <v>177</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -8360,10 +8405,10 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="32" t="s">
         <v>64</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -8371,10 +8416,10 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="32" t="s">
         <v>79</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -8382,10 +8427,10 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="32" t="s">
         <v>101</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -8393,10 +8438,10 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="32" t="s">
         <v>113</v>
       </c>
       <c r="C77" s="3" t="s">
@@ -8404,10 +8449,10 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="32" t="s">
         <v>126</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -8415,10 +8460,10 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="31" t="s">
+      <c r="A79" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="32" t="s">
         <v>143</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -8426,10 +8471,10 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="31" t="s">
+      <c r="A80" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="B80" s="31" t="s">
+      <c r="B80" s="32" t="s">
         <v>151</v>
       </c>
       <c r="C80" s="3" t="s">
@@ -8437,10 +8482,10 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="32" t="s">
         <v>161</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -8448,10 +8493,10 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="32" t="s">
         <v>173</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -8459,10 +8504,10 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="32" t="s">
         <v>179</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -8470,10 +8515,10 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="31" t="s">
+      <c r="A84" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="32" t="s">
         <v>181</v>
       </c>
       <c r="C84" s="3" t="s">
@@ -8481,10 +8526,10 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="32" t="s">
         <v>182</v>
       </c>
       <c r="C85" s="3" t="s">
@@ -8492,10 +8537,10 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="31" t="s">
+      <c r="A86" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="32" t="s">
         <v>66</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -8503,10 +8548,10 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="31" t="s">
+      <c r="A87" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="B87" s="31" t="s">
+      <c r="B87" s="32" t="s">
         <v>82</v>
       </c>
       <c r="C87" s="3" t="s">
@@ -8514,10 +8559,10 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="32" t="s">
         <v>104</v>
       </c>
       <c r="C88" s="3" t="s">
@@ -8525,10 +8570,10 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="31" t="s">
+      <c r="A89" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="B89" s="31" t="s">
+      <c r="B89" s="32" t="s">
         <v>115</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -8536,10 +8581,10 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="31" t="s">
+      <c r="A90" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="32" t="s">
         <v>128</v>
       </c>
       <c r="C90" s="3" t="s">
@@ -8547,10 +8592,10 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="32" t="s">
         <v>146</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -8558,10 +8603,10 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="31" t="s">
+      <c r="A92" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="32" t="s">
         <v>152</v>
       </c>
       <c r="C92" s="3" t="s">
@@ -8569,10 +8614,10 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="31" t="s">
+      <c r="A93" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="B93" s="31" t="s">
+      <c r="B93" s="32" t="s">
         <v>163</v>
       </c>
       <c r="C93" s="3" t="s">
@@ -8580,10 +8625,10 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="31" t="s">
+      <c r="A94" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="B94" s="31" t="s">
+      <c r="B94" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -8591,10 +8636,10 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="31" t="s">
+      <c r="A95" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="B95" s="31" t="s">
+      <c r="B95" s="32" t="s">
         <v>180</v>
       </c>
       <c r="C95" s="3" t="s">
@@ -8602,10 +8647,10 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="31" t="s">
+      <c r="A96" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="B96" s="31" t="s">
+      <c r="B96" s="32" t="s">
         <v>186</v>
       </c>
       <c r="C96" s="3" t="s">
@@ -8613,10 +8658,10 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="31" t="s">
+      <c r="A97" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="B97" s="31" t="s">
+      <c r="B97" s="32" t="s">
         <v>195</v>
       </c>
       <c r="C97" s="3" t="s">
